--- a/data/trans_orig/P21B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21B-Provincia-trans_orig.xlsx
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4984</v>
+        <v>5502</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02502442738115103</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1292489006804858</v>
+        <v>0.1426771983134867</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6266</v>
+        <v>6736</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02194265632893965</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1116963236397146</v>
+        <v>0.1200852516065402</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7372</v>
+        <v>7256</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02319813264964633</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07788075494142124</v>
+        <v>0.07665959391694953</v>
       </c>
     </row>
     <row r="6">
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4921</v>
+        <v>3865</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01673433427018726</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08773265057827433</v>
+        <v>0.06890665386930367</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5376</v>
+        <v>4783</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.009916968520731401</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05679315347083792</v>
+        <v>0.05052486077212597</v>
       </c>
     </row>
     <row r="7">
@@ -925,19 +925,19 @@
         <v>9260</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4711</v>
+        <v>5204</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15308</v>
+        <v>15288</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2401280457034942</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1221627574820544</v>
+        <v>0.134951360211291</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3969679438477544</v>
+        <v>0.396463561131488</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -946,19 +946,19 @@
         <v>16261</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9446</v>
+        <v>10640</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24220</v>
+        <v>23467</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2898824479322318</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1683864683215934</v>
+        <v>0.1896733953732614</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.431767800174612</v>
+        <v>0.4183493233914123</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -967,19 +967,19 @@
         <v>25521</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18124</v>
+        <v>17931</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34498</v>
+        <v>35549</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2696131051449821</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1914723932565965</v>
+        <v>0.1894272172105364</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3644449097021412</v>
+        <v>0.3755521951849086</v>
       </c>
     </row>
     <row r="8">
@@ -996,19 +996,19 @@
         <v>28337</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>22461</v>
+        <v>22223</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>33004</v>
+        <v>32884</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7348475269153547</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5824769249693165</v>
+        <v>0.5762832294881655</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8558733442673198</v>
+        <v>0.852764798231093</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>34</v>
@@ -1017,19 +1017,19 @@
         <v>37664</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>30435</v>
+        <v>30171</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>44571</v>
+        <v>43812</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6714405614686412</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5425575803643672</v>
+        <v>0.5378506787382826</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7945564290771037</v>
+        <v>0.7810357348707639</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>62</v>
@@ -1038,19 +1038,19 @@
         <v>66002</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>56430</v>
+        <v>56892</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>73935</v>
+        <v>74057</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6972717936846401</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5961421847520393</v>
+        <v>0.6010276677184103</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.781076188273199</v>
+        <v>0.7823612765743794</v>
       </c>
     </row>
     <row r="9">
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8345</v>
+        <v>7104</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.023445271414925</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1105727173611602</v>
+        <v>0.09413062241709745</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5843</v>
+        <v>6688</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01513541457342093</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04564481665837392</v>
+        <v>0.05224041055314965</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -1231,19 +1231,19 @@
         <v>3707</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>965</v>
+        <v>951</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10716</v>
+        <v>10864</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01821742157907237</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004740632073281952</v>
+        <v>0.00467426959848649</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05266050294979056</v>
+        <v>0.05339017878592175</v>
       </c>
     </row>
     <row r="12">
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5104</v>
+        <v>5502</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01378759255299568</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06763023954791961</v>
+        <v>0.07290287645806931</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5243</v>
+        <v>5295</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.005113620805976385</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02576686754697509</v>
+        <v>0.02602257906204436</v>
       </c>
     </row>
     <row r="13">
@@ -1323,19 +1323,19 @@
         <v>15795</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9922</v>
+        <v>9612</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24234</v>
+        <v>24280</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.209284399436231</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1314677223470531</v>
+        <v>0.1273589077826746</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3210964169613775</v>
+        <v>0.321711504972333</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -1344,19 +1344,19 @@
         <v>37462</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27558</v>
+        <v>27756</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47960</v>
+        <v>48587</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2926307057702218</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2152634692187629</v>
+        <v>0.2168112789600657</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3746316190130169</v>
+        <v>0.3795305209545018</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>52</v>
@@ -1365,19 +1365,19 @@
         <v>53258</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>40979</v>
+        <v>41630</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65984</v>
+        <v>65727</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2617187532641859</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2013802429845082</v>
+        <v>0.2045758761932455</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3242581694287423</v>
+        <v>0.3229948292616006</v>
       </c>
     </row>
     <row r="14">
@@ -1394,19 +1394,19 @@
         <v>56867</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>48144</v>
+        <v>47954</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>63912</v>
+        <v>64162</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7534827365958483</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6379000824688943</v>
+        <v>0.6353920112168817</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8468259159589692</v>
+        <v>0.8501452076849018</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>88</v>
@@ -1415,19 +1415,19 @@
         <v>88619</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>78026</v>
+        <v>77920</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>98021</v>
+        <v>97688</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6922338796563573</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6094838484349924</v>
+        <v>0.6086572580821217</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7656743205897949</v>
+        <v>0.7630703412322121</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>140</v>
@@ -1436,19 +1436,19 @@
         <v>145487</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>132836</v>
+        <v>132327</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>158658</v>
+        <v>157577</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7149502043507654</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6527816172754418</v>
+        <v>0.6502824563969879</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7796791541730125</v>
+        <v>0.7743644431998554</v>
       </c>
     </row>
     <row r="15">
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4928</v>
+        <v>5282</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01386569366958753</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07197331193947078</v>
+        <v>0.07714088340530875</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5664</v>
+        <v>4801</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006147600136635826</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03667741004651125</v>
+        <v>0.03108820739583843</v>
       </c>
     </row>
     <row r="17">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4653</v>
+        <v>5437</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01313259624071477</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06796417356861428</v>
+        <v>0.07940198958152127</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4804</v>
+        <v>4876</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.005822568446098009</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03111113460042117</v>
+        <v>0.0315726231144876</v>
       </c>
     </row>
     <row r="18">
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7011</v>
+        <v>6508</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02860607786340515</v>
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1024008818820141</v>
+        <v>0.09505581321317881</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>7115</v>
+        <v>6994</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01268300976296672</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0460723479188998</v>
+        <v>0.04528995234086153</v>
       </c>
     </row>
     <row r="19">
@@ -1729,19 +1729,19 @@
         <v>13836</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8047</v>
+        <v>8040</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20713</v>
+        <v>21223</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2020828585992448</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.117527395592988</v>
+        <v>0.1174208133467642</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3025176531405966</v>
+        <v>0.3099686117313236</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>32</v>
@@ -1750,19 +1750,19 @@
         <v>32711</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24259</v>
+        <v>24301</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>42621</v>
+        <v>42260</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3805345597264833</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2822096991808637</v>
+        <v>0.2826999682187742</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.49581911917396</v>
+        <v>0.4916199785657802</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>46</v>
@@ -1771,19 +1771,19 @@
         <v>46547</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>35420</v>
+        <v>35573</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>58468</v>
+        <v>57982</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3014148468311283</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2293583242340367</v>
+        <v>0.2303511076318417</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3786052449271151</v>
+        <v>0.3754613672504445</v>
       </c>
     </row>
     <row r="20">
@@ -1800,19 +1800,19 @@
         <v>50825</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>43381</v>
+        <v>42944</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>57671</v>
+        <v>57583</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7423127736270477</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6335888131071604</v>
+        <v>0.6272044573953481</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8422887404810425</v>
+        <v>0.8410036221170533</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>52</v>
@@ -1821,19 +1821,19 @@
         <v>53250</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>43340</v>
+        <v>43701</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>61702</v>
+        <v>61660</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6194654402735167</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5041808808260393</v>
+        <v>0.5083800214342196</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7177903008191361</v>
+        <v>0.7173000317812258</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>99</v>
@@ -1842,19 +1842,19 @@
         <v>104075</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>92402</v>
+        <v>92800</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>116316</v>
+        <v>115153</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6739319748231711</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5983441821702141</v>
+        <v>0.6009185165831858</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7531965170826332</v>
+        <v>0.7456633793456494</v>
       </c>
     </row>
     <row r="21">
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4926</v>
+        <v>4826</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.009338653945559085</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04747626005549938</v>
+        <v>0.04650982645602892</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4858</v>
+        <v>4814</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.005432522388972592</v>
@@ -1992,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02723859906559549</v>
+        <v>0.02698931530387937</v>
       </c>
     </row>
     <row r="23">
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6332</v>
+        <v>5600</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02398745428188909</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08486790455002674</v>
+        <v>0.075063562817516</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>4314</v>
+        <v>4273</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.008204553469790028</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04157805560101749</v>
+        <v>0.0411811337466514</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3</v>
@@ -2051,19 +2051,19 @@
         <v>2641</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7293</v>
+        <v>7112</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01480615657833351</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.004763231382198658</v>
+        <v>0.004769791919483837</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04088989568674715</v>
+        <v>0.03987351100329915</v>
       </c>
     </row>
     <row r="24">
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6720</v>
+        <v>6527</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01773818528243765</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06476241564637601</v>
+        <v>0.06290433833572569</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2</v>
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>7334</v>
+        <v>5580</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01031873428958263</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04111872684868204</v>
+        <v>0.03128592724402093</v>
       </c>
     </row>
     <row r="25">
@@ -2143,19 +2143,19 @@
         <v>18879</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12223</v>
+        <v>12076</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>27343</v>
+        <v>26867</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2530473747045114</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1638324038355333</v>
+        <v>0.1618581926360932</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3664968705895105</v>
+        <v>0.3601142734729598</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>29</v>
@@ -2164,19 +2164,19 @@
         <v>27367</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>19575</v>
+        <v>18373</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>36475</v>
+        <v>36856</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2637576391253024</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1886612649109401</v>
+        <v>0.1770739686514151</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3515356279910528</v>
+        <v>0.3552114195727729</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>47</v>
@@ -2185,19 +2185,19 @@
         <v>46246</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>35007</v>
+        <v>35718</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>57965</v>
+        <v>58510</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2592777963045571</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1962654441770847</v>
+        <v>0.2002545958025551</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3249769860306794</v>
+        <v>0.328032759493738</v>
       </c>
     </row>
     <row r="26">
@@ -2214,19 +2214,19 @@
         <v>53938</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>45191</v>
+        <v>46599</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>60502</v>
+        <v>61447</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7229651710135995</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.605733684336398</v>
+        <v>0.6246046357340301</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8109491892602841</v>
+        <v>0.823613402367958</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>76</v>
@@ -2235,19 +2235,19 @@
         <v>72731</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>63227</v>
+        <v>62615</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>80803</v>
+        <v>81653</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7009609681769109</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6093598816588222</v>
+        <v>0.6034676091434341</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7787529781201743</v>
+        <v>0.7869439211435794</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>133</v>
@@ -2256,19 +2256,19 @@
         <v>126669</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>115020</v>
+        <v>114305</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>137989</v>
+        <v>137756</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7101647904385542</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6448598506426082</v>
+        <v>0.6408470455051424</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7736334477410107</v>
+        <v>0.7723255387079858</v>
       </c>
     </row>
     <row r="27">
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4562</v>
+        <v>4612</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02583890188966111</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1311893040548656</v>
+        <v>0.1326339728907611</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6023</v>
+        <v>4513</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01169690949480942</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07840691266446359</v>
+        <v>0.05874981354249856</v>
       </c>
     </row>
     <row r="29">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7883</v>
+        <v>7528</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03863179560524823</v>
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1874964454196642</v>
+        <v>0.1790735969385429</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1</v>
@@ -2507,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>9236</v>
+        <v>9567</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0211437220506452</v>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1202348633449423</v>
+        <v>0.1245517444571489</v>
       </c>
     </row>
     <row r="31">
@@ -2533,19 +2533,19 @@
         <v>12302</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6983</v>
+        <v>6990</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>18252</v>
+        <v>17838</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3538014610558674</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2008248689061697</v>
+        <v>0.2010370978497571</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5248953465265682</v>
+        <v>0.513005110754427</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>16</v>
@@ -2554,19 +2554,19 @@
         <v>16459</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>10123</v>
+        <v>10497</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>22961</v>
+        <v>23297</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3915016391165427</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.240790429460833</v>
+        <v>0.2496779515660927</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5461522953376562</v>
+        <v>0.554144066080444</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>29</v>
@@ -2575,19 +2575,19 @@
         <v>28761</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>20990</v>
+        <v>20415</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>37400</v>
+        <v>38194</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3744352957944851</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2732598507198155</v>
+        <v>0.2657787034098706</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4868919612330419</v>
+        <v>0.4972369690213291</v>
       </c>
     </row>
     <row r="32">
@@ -2604,19 +2604,19 @@
         <v>21571</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>16266</v>
+        <v>15868</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>26679</v>
+        <v>26766</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6203596370544715</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4677871478946972</v>
+        <v>0.4563431240753174</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7672626484858438</v>
+        <v>0.7697571367724373</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>23</v>
@@ -2625,19 +2625,19 @@
         <v>23958</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>17550</v>
+        <v>17251</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>30660</v>
+        <v>30537</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5698665652782091</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4174458388431896</v>
+        <v>0.4103364579250561</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7292807307822665</v>
+        <v>0.7263685805530339</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>45</v>
@@ -2646,19 +2646,19 @@
         <v>45529</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>37298</v>
+        <v>36251</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>53844</v>
+        <v>54405</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5927240726600603</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4855686536149366</v>
+        <v>0.4719436110713623</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7009752598075295</v>
+        <v>0.7082791632350826</v>
       </c>
     </row>
     <row r="33">
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>6422</v>
+        <v>5897</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01358380353361268</v>
@@ -2822,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07348576437611468</v>
+        <v>0.06748031016470966</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>6522</v>
+        <v>6401</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.008134874726677881</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.0446947605727604</v>
+        <v>0.04386386418618856</v>
       </c>
     </row>
     <row r="36">
@@ -2907,19 +2907,19 @@
         <v>16183</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>10008</v>
+        <v>9856</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>23815</v>
+        <v>23277</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2764446213355007</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1709569608966814</v>
+        <v>0.1683600307944151</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4068230534786885</v>
+        <v>0.397625713640152</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>20</v>
@@ -2928,19 +2928,19 @@
         <v>19943</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>12953</v>
+        <v>13366</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>30019</v>
+        <v>28233</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.22819418728188</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1482121796114451</v>
+        <v>0.1529373526131187</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3434827888087023</v>
+        <v>0.323054150546256</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>36</v>
@@ -2949,19 +2949,19 @@
         <v>36126</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>27484</v>
+        <v>26654</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>47337</v>
+        <v>46717</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2475490888314579</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.188333496878843</v>
+        <v>0.1826475717271182</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.324372932338155</v>
+        <v>0.3201238720426727</v>
       </c>
     </row>
     <row r="38">
@@ -2978,19 +2978,19 @@
         <v>42356</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>34724</v>
+        <v>35262</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>48531</v>
+        <v>48683</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.7235553786644993</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5931769465213117</v>
+        <v>0.6023742863598481</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8290430391033191</v>
+        <v>0.8316399692055849</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>62</v>
@@ -2999,19 +2999,19 @@
         <v>66265</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>56943</v>
+        <v>57918</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>73428</v>
+        <v>72923</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7582220091845072</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6515582783130959</v>
+        <v>0.6627123760830721</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8401858328539346</v>
+        <v>0.8344042580755715</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>104</v>
@@ -3020,19 +3020,19 @@
         <v>108621</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>97533</v>
+        <v>97669</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>117387</v>
+        <v>118002</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7443160364418642</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6683382813672804</v>
+        <v>0.669267239332405</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.804384817443244</v>
+        <v>0.8085969734259845</v>
       </c>
     </row>
     <row r="39">
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>3481</v>
+        <v>4311</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.007677103676449527</v>
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03187548407387113</v>
+        <v>0.03947794903752559</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -3148,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>5943</v>
+        <v>5979</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.006996107328739488</v>
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03522747409551023</v>
+        <v>0.03544307424023408</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2</v>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>6883</v>
+        <v>6793</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.007263710071879794</v>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02476717371447892</v>
+        <v>0.02444179744271609</v>
       </c>
     </row>
     <row r="41">
@@ -3195,19 +3195,19 @@
         <v>3698</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>935</v>
+        <v>912</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>8432</v>
+        <v>8842</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.03386016858192552</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.008558171427269902</v>
+        <v>0.00835008485661694</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.07721417866049987</v>
+        <v>0.08096893560990778</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>6</v>
@@ -3216,19 +3216,19 @@
         <v>6257</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2746</v>
+        <v>2796</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>12792</v>
+        <v>12841</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.03709089387032485</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01627600831689966</v>
+        <v>0.0165739115441103</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.0758223213190702</v>
+        <v>0.07611476859272971</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>10</v>
@@ -3237,19 +3237,19 @@
         <v>9955</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>4934</v>
+        <v>4854</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>17850</v>
+        <v>17779</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.0358213555645533</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01775271744971695</v>
+        <v>0.01746660077015443</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.06422701806015951</v>
+        <v>0.06397126806286657</v>
       </c>
     </row>
     <row r="42">
@@ -3266,19 +3266,19 @@
         <v>6233</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2008</v>
+        <v>1809</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>14579</v>
+        <v>13571</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.05707068055178961</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01838508515854849</v>
+        <v>0.01656112226776802</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1334966185680807</v>
+        <v>0.1242694594966326</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>4</v>
@@ -3287,19 +3287,19 @@
         <v>4136</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>9974</v>
+        <v>10181</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02451759807154213</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.006417553362359445</v>
+        <v>0.006372405447039349</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.05912079342535833</v>
+        <v>0.06034777666581446</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>9</v>
@@ -3308,19 +3308,19 @@
         <v>10369</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>4962</v>
+        <v>5476</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>18533</v>
+        <v>18334</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.03730958175644736</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.01785517987972923</v>
+        <v>0.01970534778962942</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.0666876769740626</v>
+        <v>0.06597131278913761</v>
       </c>
     </row>
     <row r="43">
@@ -3337,19 +3337,19 @@
         <v>14339</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>8602</v>
+        <v>8439</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>23314</v>
+        <v>23451</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1313034429843988</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.07876988193987561</v>
+        <v>0.07727310056376249</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2134826989078679</v>
+        <v>0.2147334403252398</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>29</v>
@@ -3358,19 +3358,19 @@
         <v>29401</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>20454</v>
+        <v>20371</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>40541</v>
+        <v>40267</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1742739765880945</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1212394282089573</v>
+        <v>0.1207494143828343</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.240304055633604</v>
+        <v>0.2386797694656903</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>43</v>
@@ -3379,19 +3379,19 @@
         <v>43740</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>32800</v>
+        <v>33161</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>57905</v>
+        <v>56244</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1573883755048889</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1180229640682271</v>
+        <v>0.1193206564059342</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2083570442052043</v>
+        <v>0.2023780701630394</v>
       </c>
     </row>
     <row r="44">
@@ -3408,19 +3408,19 @@
         <v>84100</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>73247</v>
+        <v>74929</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>92443</v>
+        <v>92338</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.7700886042054366</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6707072040732347</v>
+        <v>0.6861106505723676</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.84648296902098</v>
+        <v>0.845522699375278</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>124</v>
@@ -3429,19 +3429,19 @@
         <v>127731</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>116091</v>
+        <v>117058</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>138786</v>
+        <v>138322</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.757121424141299</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.6881288697378432</v>
+        <v>0.6938578790060399</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8226481466030955</v>
+        <v>0.8198973373851315</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>206</v>
@@ -3450,19 +3450,19 @@
         <v>211831</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>195398</v>
+        <v>195857</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>224685</v>
+        <v>224082</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.7622169771022307</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.7030890157844523</v>
+        <v>0.7047379228336705</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.8084679317869562</v>
+        <v>0.8063003726601692</v>
       </c>
     </row>
     <row r="45">
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>3745</v>
+        <v>3719</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.0048661509091772</v>
@@ -3579,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02463208580762105</v>
+        <v>0.02445939872648594</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>3755</v>
+        <v>3713</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.002949237175790132</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01496721565437351</v>
+        <v>0.01480260626697257</v>
       </c>
     </row>
     <row r="47">
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>7052</v>
+        <v>5220</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.01083815070138474</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.0713647439353314</v>
+        <v>0.05282568296024372</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>2</v>
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>6657</v>
+        <v>7871</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.01426370126759273</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.04378541592374585</v>
+        <v>0.05177343190166765</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>3</v>
@@ -3659,19 +3659,19 @@
         <v>3240</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>8656</v>
+        <v>8834</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.01291428053499851</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.004014152201001351</v>
+        <v>0.004036349151511905</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.03450628637770598</v>
+        <v>0.03521704451597499</v>
       </c>
     </row>
     <row r="48">
@@ -3688,19 +3688,19 @@
         <v>3358</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>9478</v>
+        <v>10000</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.03398218852641801</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.008525898715629083</v>
+        <v>0.008594099951941377</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.09591485268454539</v>
+        <v>0.1011995682677448</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>2</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>5188</v>
+        <v>5379</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.01089349740368184</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.0341221899931828</v>
+        <v>0.03538086571862958</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>5</v>
@@ -3730,19 +3730,19 @@
         <v>5014</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1774</v>
+        <v>1709</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>11171</v>
+        <v>12693</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.01998878234760657</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.007071461871883716</v>
+        <v>0.006812180643545268</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.04453340362737068</v>
+        <v>0.05060105544885009</v>
       </c>
     </row>
     <row r="49">
@@ -3759,19 +3759,19 @@
         <v>36850</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>27246</v>
+        <v>27755</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>46663</v>
+        <v>46804</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3729160253466607</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2757198753673356</v>
+        <v>0.2808720485333077</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4722145512211634</v>
+        <v>0.4736467278563568</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>46</v>
@@ -3780,19 +3780,19 @@
         <v>50353</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>39114</v>
+        <v>39315</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>62400</v>
+        <v>63489</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3311967346285914</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2572714404148018</v>
+        <v>0.2585932211659061</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.410436092977844</v>
+        <v>0.4176016234357283</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>81</v>
@@ -3801,19 +3801,19 @@
         <v>87203</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>73002</v>
+        <v>73741</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>102874</v>
+        <v>103470</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.347631136852701</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2910175545524941</v>
+        <v>0.293965546903513</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.4101032509742565</v>
+        <v>0.4124781492923527</v>
       </c>
     </row>
     <row r="50">
@@ -3830,19 +3830,19 @@
         <v>57538</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>47451</v>
+        <v>47571</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>67503</v>
+        <v>67105</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.5822636354255366</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.4801923564858958</v>
+        <v>0.4814001138963219</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.6831099998014982</v>
+        <v>0.6790792512932529</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>92</v>
@@ -3851,19 +3851,19 @@
         <v>97116</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>84391</v>
+        <v>83699</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>109160</v>
+        <v>107978</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.6387799157909568</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.5550805133863612</v>
+        <v>0.5505298372107557</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.7180018763963183</v>
+        <v>0.7102243010200175</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>150</v>
@@ -3872,19 +3872,19 @@
         <v>154653</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>138666</v>
+        <v>138733</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>169275</v>
+        <v>169377</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.6165165630889038</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.5527862894877937</v>
+        <v>0.5530532564010778</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.6748059361360611</v>
+        <v>0.6752123085151883</v>
       </c>
     </row>
     <row r="51">
@@ -3976,19 +3976,19 @@
         <v>2686</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>7190</v>
+        <v>7290</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.004810227044308192</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.001468336881503951</v>
+        <v>0.001489892474010832</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.01287575282132472</v>
+        <v>0.01305410193323942</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>3</v>
@@ -3997,19 +3997,19 @@
         <v>2889</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>8146</v>
+        <v>7463</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.003506114334318771</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.0009023749154532572</v>
+        <v>0.0008915016460693502</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.009885805107661407</v>
+        <v>0.009056997756910564</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>6</v>
@@ -4018,19 +4018,19 @@
         <v>5575</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>2121</v>
+        <v>2368</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>11732</v>
+        <v>10850</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.004032913779798131</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.001533879205615712</v>
+        <v>0.001713106147197085</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.008486130181520732</v>
+        <v>0.007848212159243128</v>
       </c>
     </row>
     <row r="53">
@@ -4047,19 +4047,19 @@
         <v>10192</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>4781</v>
+        <v>5411</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>18570</v>
+        <v>19016</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.01825074006506551</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.008561901562776192</v>
+        <v>0.009690201618112706</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.03325283153042422</v>
+        <v>0.03405096583262971</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>13</v>
@@ -4068,19 +4068,19 @@
         <v>13633</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>7282</v>
+        <v>7508</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>23167</v>
+        <v>22737</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.01654466953488669</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.008837800102296412</v>
+        <v>0.009111796532797875</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.02811473567240877</v>
+        <v>0.02759268178597524</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>23</v>
@@ -4089,19 +4089,19 @@
         <v>23825</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>14666</v>
+        <v>15613</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>34790</v>
+        <v>35641</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.01723384080234115</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.0106088805562506</v>
+        <v>0.01129367088285895</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.02516548821322665</v>
+        <v>0.02578083302090571</v>
       </c>
     </row>
     <row r="54">
@@ -4118,19 +4118,19 @@
         <v>12590</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>7123</v>
+        <v>6550</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>22466</v>
+        <v>21698</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.02254440817745234</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.01275461620961515</v>
+        <v>0.01172941426309765</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.04022904566728256</v>
+        <v>0.03885412390173782</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>10</v>
@@ -4139,19 +4139,19 @@
         <v>10196</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>4981</v>
+        <v>4923</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>17691</v>
+        <v>17955</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.01237335610392392</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.006045249235230398</v>
+        <v>0.005974434996229924</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.02146908670566572</v>
+        <v>0.02178995190228773</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>21</v>
@@ -4160,19 +4160,19 @@
         <v>22786</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>14709</v>
+        <v>13978</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>34772</v>
+        <v>34470</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.01648197689354872</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.01063941879571723</v>
+        <v>0.0101108988634877</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.02515250322841318</v>
+        <v>0.02493364005403606</v>
       </c>
     </row>
     <row r="55">
@@ -4189,19 +4189,19 @@
         <v>137445</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>118751</v>
+        <v>117309</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>161035</v>
+        <v>158752</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2461211928504486</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2126452764382909</v>
+        <v>0.2100639743971352</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2883633313229093</v>
+        <v>0.2842754600606421</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>226</v>
@@ -4210,19 +4210,19 @@
         <v>229958</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>202211</v>
+        <v>205249</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>255781</v>
+        <v>257736</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2790718062582075</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2453995631148755</v>
+        <v>0.2490861319279664</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.3104106898714341</v>
+        <v>0.3127824792580646</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>361</v>
@@ -4231,19 +4231,19 @@
         <v>367403</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>335069</v>
+        <v>334383</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>403305</v>
+        <v>403673</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2657613272340801</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2423728940278022</v>
+        <v>0.2418766856084048</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2917311670086036</v>
+        <v>0.2919973769631125</v>
       </c>
     </row>
     <row r="56">
@@ -4260,19 +4260,19 @@
         <v>395532</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>369564</v>
+        <v>373356</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>414502</v>
+        <v>418610</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.7082734318627253</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.6617716334189434</v>
+        <v>0.668561970340009</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.7422421148617749</v>
+        <v>0.7495987954508234</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>551</v>
@@ -4281,19 +4281,19 @@
         <v>567334</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>539552</v>
+        <v>541267</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>595384</v>
+        <v>595425</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.6885040537686632</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.6547892511287289</v>
+        <v>0.6568698685621358</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.722545431482288</v>
+        <v>0.7225947238184078</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>939</v>
@@ -4302,19 +4302,19 @@
         <v>962865</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>925878</v>
+        <v>924955</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>995718</v>
+        <v>995427</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.6964899412902319</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.6697348757243996</v>
+        <v>0.6690673679091247</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.7202542320578068</v>
+        <v>0.7200435670893487</v>
       </c>
     </row>
     <row r="57">
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5464</v>
+        <v>5795</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.00973775480742731</v>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05409148445826444</v>
+        <v>0.05737464328815246</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -4734,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6071</v>
+        <v>4911</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.004644633056938368</v>
@@ -4743,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02866775260206956</v>
+        <v>0.0231905524977031</v>
       </c>
     </row>
     <row r="6">
@@ -4763,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7358</v>
+        <v>7996</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02221488089140237</v>
@@ -4772,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07284348145299759</v>
+        <v>0.0791620482118579</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -4797,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>8404</v>
+        <v>7853</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01059586857387877</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03968369614100378</v>
+        <v>0.03708224351039275</v>
       </c>
     </row>
     <row r="7">
@@ -4823,19 +4823,19 @@
         <v>48261</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36942</v>
+        <v>37886</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58073</v>
+        <v>58933</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4777837293408149</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3657223504431276</v>
+        <v>0.3750766641446169</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5749233932238573</v>
+        <v>0.5834371850031321</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -4844,19 +4844,19 @@
         <v>41358</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30509</v>
+        <v>30813</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52110</v>
+        <v>52987</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3733880664428864</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2754403198167084</v>
+        <v>0.2781857247034699</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4704562387700269</v>
+        <v>0.4783768451602134</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>83</v>
@@ -4865,19 +4865,19 @@
         <v>89619</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>73840</v>
+        <v>76295</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>105363</v>
+        <v>104480</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4231818388766387</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.348673578978847</v>
+        <v>0.36026466318013</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.497524157424248</v>
+        <v>0.4933564306831716</v>
       </c>
     </row>
     <row r="8">
@@ -4894,19 +4894,19 @@
         <v>49522</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>39436</v>
+        <v>39386</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>60486</v>
+        <v>60201</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4902636349603554</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3904150921386229</v>
+        <v>0.389920154939315</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5988166195217028</v>
+        <v>0.5959909601865231</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>61</v>
@@ -4915,19 +4915,19 @@
         <v>69406</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>58654</v>
+        <v>57777</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>80255</v>
+        <v>79951</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6266119335571136</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5295437612299732</v>
+        <v>0.5216231548397872</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7245596801832916</v>
+        <v>0.7218142752965302</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>110</v>
@@ -4936,19 +4936,19 @@
         <v>118928</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>103664</v>
+        <v>104050</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>135171</v>
+        <v>133491</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5615776594925441</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4895031268356814</v>
+        <v>0.4913263504580292</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6382772658029012</v>
+        <v>0.6303464625862855</v>
       </c>
     </row>
     <row r="9">
@@ -5103,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10722</v>
+        <v>11822</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01491353229468492</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05382623388733158</v>
+        <v>0.05934744406656441</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -5124,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12433</v>
+        <v>11348</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.008988579515100834</v>
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03761925624972968</v>
+        <v>0.03433440187445104</v>
       </c>
     </row>
     <row r="12">
@@ -5150,19 +5150,19 @@
         <v>2858</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7607</v>
+        <v>7762</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02176774571549374</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.007033780867834872</v>
+        <v>0.007049026028081628</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05793153452121672</v>
+        <v>0.0591149771683364</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -5171,19 +5171,19 @@
         <v>2944</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7954</v>
+        <v>7798</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01477777894420653</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.004747438993558402</v>
+        <v>0.004701213922863995</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03992818959181025</v>
+        <v>0.03914852272682893</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>6</v>
@@ -5192,19 +5192,19 @@
         <v>5802</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1970</v>
+        <v>2737</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>12168</v>
+        <v>12649</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01755480200168156</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.005961381655064956</v>
+        <v>0.00828017901952113</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03681745041105123</v>
+        <v>0.03827046759396449</v>
       </c>
     </row>
     <row r="13">
@@ -5221,19 +5221,19 @@
         <v>46592</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35527</v>
+        <v>34577</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59407</v>
+        <v>58913</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3548320921320802</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2705688184489192</v>
+        <v>0.263327738399897</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.452430398146713</v>
+        <v>0.4486680829346728</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -5242,19 +5242,19 @@
         <v>70043</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57368</v>
+        <v>56753</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>84326</v>
+        <v>84275</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3516212462917077</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2879920514399657</v>
+        <v>0.2849033535966626</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4233224099640067</v>
+        <v>0.4230626666657047</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>108</v>
@@ -5263,19 +5263,19 @@
         <v>116635</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>97523</v>
+        <v>99587</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>134583</v>
+        <v>134120</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.352896873662261</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2950693133778546</v>
+        <v>0.3013141402043193</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4072015752886423</v>
+        <v>0.4057992257625247</v>
       </c>
     </row>
     <row r="14">
@@ -5292,19 +5292,19 @@
         <v>81856</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>68685</v>
+        <v>69236</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>92971</v>
+        <v>93859</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6234001621524261</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5230882771027286</v>
+        <v>0.5272898110543249</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7080516176236379</v>
+        <v>0.7148080802534115</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>114</v>
@@ -5313,19 +5313,19 @@
         <v>123243</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>108314</v>
+        <v>109265</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>136570</v>
+        <v>137375</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6186874424694009</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.543741352289496</v>
+        <v>0.5485142616194342</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6855884409088131</v>
+        <v>0.6896292217373963</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>192</v>
@@ -5334,19 +5334,19 @@
         <v>205100</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>186632</v>
+        <v>187009</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>222763</v>
+        <v>223412</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6205597448209565</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5646836200509334</v>
+        <v>0.5658216579825851</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6740024348516401</v>
+        <v>0.675966292706338</v>
       </c>
     </row>
     <row r="15">
@@ -5441,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4732</v>
+        <v>4910</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01197215951597965</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06183697431456289</v>
+        <v>0.06416717266758666</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -5475,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4280</v>
+        <v>4678</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005302314373803329</v>
@@ -5484,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02476873862780626</v>
+        <v>0.02707229407545021</v>
       </c>
     </row>
     <row r="17">
@@ -5551,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4500</v>
+        <v>5190</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0131574097751412</v>
@@ -5560,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0588118533179706</v>
+        <v>0.06782729882357849</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9155</v>
+        <v>10075</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02899718660837724</v>
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09510753319696713</v>
+        <v>0.1046704959411983</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>3</v>
@@ -5590,19 +5590,19 @@
         <v>3798</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>10438</v>
+        <v>10710</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0219819546221509</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.005703858673756246</v>
+        <v>0.005665043530104784</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06041218129471496</v>
+        <v>0.06198662727366347</v>
       </c>
     </row>
     <row r="19">
@@ -5619,19 +5619,19 @@
         <v>23799</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16818</v>
+        <v>17004</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32949</v>
+        <v>32490</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3110138797414059</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2197808335975177</v>
+        <v>0.2222115825213414</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.430580548017907</v>
+        <v>0.4245882722799643</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -5640,19 +5640,19 @@
         <v>27073</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18817</v>
+        <v>18555</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>37226</v>
+        <v>36662</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2812583107107523</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1954894380872908</v>
+        <v>0.1927591573018749</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3867272694651094</v>
+        <v>0.3808707707789618</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>50</v>
@@ -5661,19 +5661,19 @@
         <v>50873</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>39338</v>
+        <v>40189</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>63844</v>
+        <v>64991</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.294436666809445</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2276745803799285</v>
+        <v>0.2326037852922691</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3695103008348236</v>
+        <v>0.376148518241466</v>
       </c>
     </row>
     <row r="20">
@@ -5690,19 +5690,19 @@
         <v>50800</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>42136</v>
+        <v>41965</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>58324</v>
+        <v>58311</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6638565509674732</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5506409033561608</v>
+        <v>0.5483994238249563</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7621823306629861</v>
+        <v>0.7620125715741511</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>62</v>
@@ -5711,19 +5711,19 @@
         <v>66393</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>55721</v>
+        <v>57141</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>75411</v>
+        <v>75106</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6897445026808704</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5788715028989827</v>
+        <v>0.5936236883891316</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7834258186752834</v>
+        <v>0.7802531454059656</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>111</v>
@@ -5732,19 +5732,19 @@
         <v>117193</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>104068</v>
+        <v>104185</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>128789</v>
+        <v>128669</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6782790641946008</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6023148055177204</v>
+        <v>0.6029948325466883</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7453935329125141</v>
+        <v>0.744697123990859</v>
       </c>
     </row>
     <row r="21">
@@ -5899,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7000</v>
+        <v>6746</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01856771856105323</v>
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06688016901264514</v>
+        <v>0.06445256757512138</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6648</v>
+        <v>6970</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01049202372071006</v>
@@ -5929,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03588940827630453</v>
+        <v>0.03762912049410615</v>
       </c>
     </row>
     <row r="24">
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10871</v>
+        <v>11644</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03968676335136557</v>
@@ -5958,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1349335996895293</v>
+        <v>0.144532389927631</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -5970,7 +5970,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6725</v>
+        <v>6781</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01826692807985725</v>
@@ -5979,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06424921205932244</v>
+        <v>0.0647848176088585</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -5988,19 +5988,19 @@
         <v>5109</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1855</v>
+        <v>1174</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>13523</v>
+        <v>13564</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02758309972551948</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01001295403061749</v>
+        <v>0.006339273738899968</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07300961589373571</v>
+        <v>0.07322820644856801</v>
       </c>
     </row>
     <row r="25">
@@ -6017,19 +6017,19 @@
         <v>23851</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>15982</v>
+        <v>16180</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33368</v>
+        <v>33922</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2960588634383136</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1983785753148337</v>
+        <v>0.2008375272284414</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4141916663236241</v>
+        <v>0.4210681038131013</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>20</v>
@@ -6038,19 +6038,19 @@
         <v>22787</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14770</v>
+        <v>15246</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>32394</v>
+        <v>33112</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.217707295427378</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1411129947370597</v>
+        <v>0.1456661662965018</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3094932006399481</v>
+        <v>0.3163528008887405</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>41</v>
@@ -6059,19 +6059,19 @@
         <v>46638</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>35260</v>
+        <v>35016</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>61490</v>
+        <v>60120</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2517848990617805</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1903609762016451</v>
+        <v>0.1890421549226476</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3319688728936434</v>
+        <v>0.3245717977793567</v>
       </c>
     </row>
     <row r="26">
@@ -6088,19 +6088,19 @@
         <v>53514</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>43854</v>
+        <v>42720</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>61627</v>
+        <v>61782</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6642543732103208</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5443473083910493</v>
+        <v>0.5302778992484196</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.764969770313644</v>
+        <v>0.7668816972311603</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>76</v>
@@ -6109,19 +6109,19 @@
         <v>78025</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>67863</v>
+        <v>67757</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>86792</v>
+        <v>86169</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7454580579317115</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6483694817230479</v>
+        <v>0.6473564446494233</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8292164824283051</v>
+        <v>0.8232641386751813</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>126</v>
@@ -6130,19 +6130,19 @@
         <v>131538</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>116863</v>
+        <v>118675</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>144286</v>
+        <v>144325</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.71013997749199</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6309117487923925</v>
+        <v>0.6406968209616164</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7789616358965047</v>
+        <v>0.7791772937327039</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5061</v>
+        <v>5647</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02750628245632664</v>
@@ -6293,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1372646543203472</v>
+        <v>0.1531792594269417</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -6305,7 +6305,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6468</v>
+        <v>6562</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02352910653926074</v>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08196266913096768</v>
+        <v>0.08315218740084521</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -6323,19 +6323,19 @@
         <v>2871</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8514</v>
+        <v>7736</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02479551408250573</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.007713525828592058</v>
+        <v>0.007798861541026924</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07353456427803834</v>
+        <v>0.06681223967815159</v>
       </c>
     </row>
     <row r="30">
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5267</v>
+        <v>5771</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02849704630943403</v>
@@ -6364,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1428708625487872</v>
+        <v>0.1565447770848796</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5005</v>
+        <v>6263</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.009073995005253157</v>
@@ -6398,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04322618923046744</v>
+        <v>0.05409407084112584</v>
       </c>
     </row>
     <row r="31">
@@ -6415,19 +6415,19 @@
         <v>16947</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>11675</v>
+        <v>10817</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>22996</v>
+        <v>22810</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4596859142101657</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3166755556771268</v>
+        <v>0.2934147853936768</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6237541445247771</v>
+        <v>0.6186997797645349</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>35</v>
@@ -6436,19 +6436,19 @@
         <v>36344</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>27027</v>
+        <v>26849</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>44996</v>
+        <v>44906</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4605479001910359</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3424860860144648</v>
+        <v>0.3402344110050778</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5701856958655036</v>
+        <v>0.5690522922452795</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>51</v>
@@ -6457,19 +6457,19 @@
         <v>53291</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>43197</v>
+        <v>43095</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>63057</v>
+        <v>64465</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4602734276579852</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3730912454641516</v>
+        <v>0.3722075368889101</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5446216659361727</v>
+        <v>0.5567861524253361</v>
       </c>
     </row>
     <row r="32">
@@ -6486,19 +6486,19 @@
         <v>17855</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>11860</v>
+        <v>11770</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>23237</v>
+        <v>24058</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4843107570240736</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3216982689010059</v>
+        <v>0.3192595086749219</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6303032342515819</v>
+        <v>0.6525621193717843</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>39</v>
@@ -6507,19 +6507,19 @@
         <v>40714</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>31482</v>
+        <v>32338</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>50049</v>
+        <v>50080</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5159229932697034</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3989440010099153</v>
+        <v>0.4097867060301594</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.634221288329088</v>
+        <v>0.6346196065617333</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>57</v>
@@ -6528,19 +6528,19 @@
         <v>58569</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>48722</v>
+        <v>48096</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>68769</v>
+        <v>69244</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5058570632542559</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4208113873904391</v>
+        <v>0.4154011197984954</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5939590882988763</v>
+        <v>0.598057426463904</v>
       </c>
     </row>
     <row r="33">
@@ -6742,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>5531</v>
+        <v>4801</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.00988639440426037</v>
@@ -6751,7 +6751,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0575216917418544</v>
+        <v>0.04993497044494016</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1</v>
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>4789</v>
+        <v>6214</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.005925157037802892</v>
@@ -6772,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02984939034545644</v>
+        <v>0.03873594569780447</v>
       </c>
     </row>
     <row r="37">
@@ -6789,19 +6789,19 @@
         <v>16144</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>9858</v>
+        <v>10268</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>24761</v>
+        <v>24025</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2511545071163103</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1533632779350783</v>
+        <v>0.1597472199416392</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3852169673180987</v>
+        <v>0.3737677014838033</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>27</v>
@@ -6810,19 +6810,19 @@
         <v>28319</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>20587</v>
+        <v>19901</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>39060</v>
+        <v>38488</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2945320864830311</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2141130574250165</v>
+        <v>0.2069864179783273</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4062494107437407</v>
+        <v>0.4002948038835543</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>43</v>
@@ -6831,19 +6831,19 @@
         <v>44463</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>33495</v>
+        <v>33963</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>56285</v>
+        <v>56204</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2771517472786916</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2087860571263439</v>
+        <v>0.2117008791870618</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3508418319408896</v>
+        <v>0.3503364935143963</v>
       </c>
     </row>
     <row r="38">
@@ -6860,19 +6860,19 @@
         <v>48135</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>39518</v>
+        <v>40254</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>54421</v>
+        <v>54011</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.7488454928836896</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.6147830326819013</v>
+        <v>0.6262322985161966</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8466367220649218</v>
+        <v>0.8402527800583608</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>63</v>
@@ -6881,19 +6881,19 @@
         <v>66879</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>55124</v>
+        <v>57140</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>74663</v>
+        <v>75318</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.6955815191127085</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.5733284528780086</v>
+        <v>0.5942920067552396</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7765374689954142</v>
+        <v>0.7833501814059475</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>108</v>
@@ -6902,19 +6902,19 @@
         <v>115015</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>103453</v>
+        <v>103443</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>126228</v>
+        <v>125641</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7169230956835054</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6448570059095203</v>
+        <v>0.6447917405976206</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7868173531506408</v>
+        <v>0.7831597481240794</v>
       </c>
     </row>
     <row r="39">
@@ -7056,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>5010</v>
+        <v>4474</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.006199430688127939</v>
@@ -7065,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03462733542159096</v>
+        <v>0.03092068798873505</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>4</v>
@@ -7074,19 +7074,19 @@
         <v>3822</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>9579</v>
+        <v>9784</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0205755713518107</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.005167660817213455</v>
+        <v>0.00511407968689292</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.05156711897997967</v>
+        <v>0.05266898440965789</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>5</v>
@@ -7095,19 +7095,19 @@
         <v>4719</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1823</v>
+        <v>1785</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>10815</v>
+        <v>10372</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01428110015770488</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.005515757975653156</v>
+        <v>0.005401294357121208</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03272773496979103</v>
+        <v>0.03138731618520581</v>
       </c>
     </row>
     <row r="42">
@@ -7127,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5662</v>
+        <v>4724</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.006362970869353596</v>
@@ -7136,7 +7136,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.03913570813878751</v>
+        <v>0.03265188257325769</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>3</v>
@@ -7145,19 +7145,19 @@
         <v>3241</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>8992</v>
+        <v>9306</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.01744411749719946</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.005133071184877195</v>
+        <v>0.005105450835308688</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.04840525626908952</v>
+        <v>0.05009554236075452</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>4</v>
@@ -7166,19 +7166,19 @@
         <v>4161</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1059</v>
+        <v>1067</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>10812</v>
+        <v>10091</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.01259233148046674</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.003204729579820895</v>
+        <v>0.003228021687751075</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.03271839309658513</v>
+        <v>0.03053686367992285</v>
       </c>
     </row>
     <row r="43">
@@ -7195,19 +7195,19 @@
         <v>50554</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>39379</v>
+        <v>38928</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>62432</v>
+        <v>62514</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3494020298179862</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2721713131102002</v>
+        <v>0.2690514998009554</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.4314978342125075</v>
+        <v>0.4320694205158714</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>54</v>
@@ -7216,19 +7216,19 @@
         <v>58000</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>45669</v>
+        <v>45112</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>71394</v>
+        <v>70793</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.3122179481597617</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2458386245019719</v>
+        <v>0.2428443411228581</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3843227663758562</v>
+        <v>0.3810826050113332</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>101</v>
@@ -7237,19 +7237,19 @@
         <v>108553</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>92314</v>
+        <v>90943</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>128713</v>
+        <v>126050</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3284986827708415</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2793576200569087</v>
+        <v>0.2752065131061327</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3895059827663415</v>
+        <v>0.3814482077586483</v>
       </c>
     </row>
     <row r="44">
@@ -7266,19 +7266,19 @@
         <v>92315</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>79370</v>
+        <v>80934</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>103145</v>
+        <v>103916</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.6380355686245323</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5485687489505144</v>
+        <v>0.5593752389129899</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.7128870085692715</v>
+        <v>0.7182196765976918</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>112</v>
@@ -7287,19 +7287,19 @@
         <v>120704</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>107718</v>
+        <v>107970</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>133038</v>
+        <v>134591</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.6497623629912281</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.5798537611678403</v>
+        <v>0.5812128347500171</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.7161550250720651</v>
+        <v>0.7245149576665929</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>198</v>
@@ -7308,19 +7308,19 @@
         <v>213019</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>193413</v>
+        <v>194186</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>230712</v>
+        <v>229813</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.6446278855909868</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.5852968240712635</v>
+        <v>0.5876371799405568</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.6981698732676886</v>
+        <v>0.6954490180501604</v>
       </c>
     </row>
     <row r="45">
@@ -7415,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>5927</v>
+        <v>5568</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01587692515715646</v>
@@ -7424,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.08668767450912523</v>
+        <v>0.08143769870993617</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>5886</v>
+        <v>5416</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.006238675647779387</v>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.03382809587987948</v>
+        <v>0.03112954289640546</v>
       </c>
     </row>
     <row r="47">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>4404</v>
+        <v>5106</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.01370507568406751</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.06440836768799005</v>
+        <v>0.07468584868573142</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>4</v>
@@ -7496,19 +7496,19 @@
         <v>5175</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1948</v>
+        <v>1970</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>12572</v>
+        <v>14103</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.04898939513108148</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.01844093993958237</v>
+        <v>0.01865208182709152</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1190241528526887</v>
+        <v>0.1335150875275362</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>5</v>
@@ -7517,19 +7517,19 @@
         <v>6112</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>2216</v>
+        <v>2052</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>14742</v>
+        <v>14256</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.03512478203354268</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.01273391272990121</v>
+        <v>0.01179340429668195</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.08472800641445487</v>
+        <v>0.08193364532875734</v>
       </c>
     </row>
     <row r="48">
@@ -7549,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>5859</v>
+        <v>5125</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.01494853139604173</v>
@@ -7558,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.08569720379470151</v>
+        <v>0.07496614363406547</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>3</v>
@@ -7567,19 +7567,19 @@
         <v>3000</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>940</v>
+        <v>956</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>8160</v>
+        <v>8067</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.02839986366429635</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.008901703633611632</v>
+        <v>0.009050329802726693</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.07725740240917729</v>
+        <v>0.07637578050307561</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>4</v>
@@ -7588,19 +7588,19 @@
         <v>4022</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>990</v>
+        <v>1006</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>10096</v>
+        <v>10085</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.02311429997853928</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.0056919484066629</v>
+        <v>0.005780481096918793</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.05802598631279209</v>
+        <v>0.05796055904037577</v>
       </c>
     </row>
     <row r="49">
@@ -7617,19 +7617,19 @@
         <v>20398</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>12254</v>
+        <v>12988</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>29431</v>
+        <v>29717</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2983492678661066</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1792363258522264</v>
+        <v>0.189965206987639</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4304635932228172</v>
+        <v>0.4346510565011193</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>18</v>
@@ -7638,19 +7638,19 @@
         <v>20030</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>12580</v>
+        <v>11968</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>29989</v>
+        <v>29068</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1896332936745274</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1190948368645379</v>
+        <v>0.1133079379576092</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2839202373428565</v>
+        <v>0.2751990354165964</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>34</v>
@@ -7659,19 +7659,19 @@
         <v>40428</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>29625</v>
+        <v>29042</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>51901</v>
+        <v>53707</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2323521258161466</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1702612769511747</v>
+        <v>0.1669109063917371</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2982867674222052</v>
+        <v>0.3086682354196704</v>
       </c>
     </row>
     <row r="50">
@@ -7688,19 +7688,19 @@
         <v>44927</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>35754</v>
+        <v>35595</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>53830</v>
+        <v>52443</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.6571201998966276</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.5229530506775928</v>
+        <v>0.520625304425965</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.7873340564007785</v>
+        <v>0.7670407966540699</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>68</v>
@@ -7709,19 +7709,19 @@
         <v>77421</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>67545</v>
+        <v>66554</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>85459</v>
+        <v>86123</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.7329774475300949</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.6394710366366546</v>
+        <v>0.630095137940154</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.8090701451244102</v>
+        <v>0.8153543560281832</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>108</v>
@@ -7730,19 +7730,19 @@
         <v>122349</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>109245</v>
+        <v>108657</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>134804</v>
+        <v>135703</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.7031701165239921</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.6278580053038519</v>
+        <v>0.6244780529758924</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.7747525390481842</v>
+        <v>0.7799207827275376</v>
       </c>
     </row>
     <row r="51">
@@ -7837,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>6170</v>
+        <v>6859</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.002844837587779353</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.008768980674684212</v>
+        <v>0.009748453228568228</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>0</v>
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>7643</v>
+        <v>7121</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.001190777853282419</v>
@@ -7880,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.004547068655475032</v>
+        <v>0.004236504719340651</v>
       </c>
     </row>
     <row r="53">
@@ -7897,19 +7897,19 @@
         <v>3832</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>8846</v>
+        <v>9037</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.005445785365816486</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.001413192483732638</v>
+        <v>0.001405994054069239</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.01257216660979993</v>
+        <v>0.01284366184470986</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>14</v>
@@ -7918,19 +7918,19 @@
         <v>15768</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>8776</v>
+        <v>8595</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>25072</v>
+        <v>26169</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.01613330210413255</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.00897967192835487</v>
+        <v>0.008794632947231384</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.02565333089805257</v>
+        <v>0.02677588287320817</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>18</v>
@@ -7939,19 +7939,19 @@
         <v>19599</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>12102</v>
+        <v>11942</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>32522</v>
+        <v>32228</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.0116597749357482</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.007199655968378723</v>
+        <v>0.007104167639124759</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.01934727377018557</v>
+        <v>0.01917253989077149</v>
       </c>
     </row>
     <row r="54">
@@ -7968,19 +7968,19 @@
         <v>12299</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>6127</v>
+        <v>5940</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>21585</v>
+        <v>21702</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.01748075570596011</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.00870754172319568</v>
+        <v>0.008441908871885383</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.03067846670361295</v>
+        <v>0.03084392022925511</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>14</v>
@@ -7989,19 +7989,19 @@
         <v>14838</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>8708</v>
+        <v>8501</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>25781</v>
+        <v>24971</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.01518169643434616</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.0089097895960166</v>
+        <v>0.008697930437334295</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.0263783406020702</v>
+        <v>0.02554955299879202</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>25</v>
@@ -8010,19 +8010,19 @@
         <v>27137</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>17910</v>
+        <v>16981</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>39519</v>
+        <v>38702</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.01614402513661788</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.01065448616117119</v>
+        <v>0.01010192784335425</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.02350982487295522</v>
+        <v>0.02302408977430429</v>
       </c>
     </row>
     <row r="55">
@@ -8039,19 +8039,19 @@
         <v>246546</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>221546</v>
+        <v>221914</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>275584</v>
+        <v>273206</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.3504054179822344</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.3148740569706873</v>
+        <v>0.3153971764056946</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.3916761321809875</v>
+        <v>0.3882957708331743</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>283</v>
@@ -8060,19 +8060,19 @@
         <v>303954</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>276617</v>
+        <v>276462</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>333756</v>
+        <v>335222</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.3109995361485667</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2830291364865722</v>
+        <v>0.2828704876801755</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.3414931199165714</v>
+        <v>0.3429925384612277</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>511</v>
@@ -8081,19 +8081,19 @@
         <v>550499</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>511291</v>
+        <v>510305</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>590595</v>
+        <v>591178</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.3274938525827163</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.3041685623053023</v>
+        <v>0.3035822406628909</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.3513465513102827</v>
+        <v>0.3516933838304874</v>
       </c>
     </row>
     <row r="56">
@@ -8110,19 +8110,19 @@
         <v>438923</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>408154</v>
+        <v>413738</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>466028</v>
+        <v>465636</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.6238232033582096</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.5800919107055519</v>
+        <v>0.5880283322848162</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.6623453606412495</v>
+        <v>0.6617883301685312</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>595</v>
@@ -8131,19 +8131,19 @@
         <v>642785</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>615217</v>
+        <v>613570</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>672711</v>
+        <v>673307</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.6576854653129546</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.6294785417194968</v>
+        <v>0.6277933876088678</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.6883055222952402</v>
+        <v>0.6889147653127543</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1010</v>
@@ -8152,19 +8152,19 @@
         <v>1081708</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1041752</v>
+        <v>1039349</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1121500</v>
+        <v>1124818</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.6435115694916352</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.6197417166478018</v>
+        <v>0.618311737245701</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.6671837256310273</v>
+        <v>0.6691577157588229</v>
       </c>
     </row>
     <row r="57">
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5725</v>
+        <v>5039</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0118502086565538</v>
@@ -8559,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06840042678783552</v>
+        <v>0.06020374069944847</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8789</v>
+        <v>8723</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02717766350585546</v>
@@ -8580,7 +8580,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08441380523875744</v>
+        <v>0.08378226321966675</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -8589,19 +8589,19 @@
         <v>3822</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>990</v>
+        <v>998</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10865</v>
+        <v>11773</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02034719865816732</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005271618651324415</v>
+        <v>0.005313846229552698</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0578509412381328</v>
+        <v>0.06268434180311044</v>
       </c>
     </row>
     <row r="6">
@@ -8618,19 +8618,19 @@
         <v>3751</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10523</v>
+        <v>10215</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04481688692241387</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01197342844586328</v>
+        <v>0.0120566758256549</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1257239699211493</v>
+        <v>0.1220467757751222</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -8642,7 +8642,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5631</v>
+        <v>4774</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.008857904269857473</v>
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05408083680927191</v>
+        <v>0.04585207778108364</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -8660,19 +8660,19 @@
         <v>4673</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1674</v>
+        <v>985</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>12748</v>
+        <v>11085</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02488251953584893</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.008912794824153619</v>
+        <v>0.005245310274054608</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06787533498446827</v>
+        <v>0.05901754267900191</v>
       </c>
     </row>
     <row r="7">
@@ -8689,19 +8689,19 @@
         <v>25703</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18200</v>
+        <v>16753</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36307</v>
+        <v>36135</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3070926539185915</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2174496220309204</v>
+        <v>0.2001632555668314</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4337872321236222</v>
+        <v>0.4317334676727855</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -8710,19 +8710,19 @@
         <v>29948</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21308</v>
+        <v>21809</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39133</v>
+        <v>39648</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2876371180799117</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2046461314896825</v>
+        <v>0.2094612513617869</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3758513231839975</v>
+        <v>0.3807952026641843</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>55</v>
@@ -8731,19 +8731,19 @@
         <v>55652</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>44138</v>
+        <v>43172</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>68838</v>
+        <v>67590</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2963072042061216</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2350058327301682</v>
+        <v>0.2298582570355695</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3665126927261098</v>
+        <v>0.35986847988893</v>
       </c>
     </row>
     <row r="8">
@@ -8760,19 +8760,19 @@
         <v>53252</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>43257</v>
+        <v>43536</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>61302</v>
+        <v>62441</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6362402505024408</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5168239873668463</v>
+        <v>0.5201533979557864</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7324149407207911</v>
+        <v>0.7460263527043264</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>68</v>
@@ -8781,19 +8781,19 @@
         <v>70419</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>60708</v>
+        <v>60445</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>79716</v>
+        <v>79271</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6763273141443753</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5830611803337531</v>
+        <v>0.5805403751915286</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7656286857190892</v>
+        <v>0.7613512291099802</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>117</v>
@@ -8802,19 +8802,19 @@
         <v>123671</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>109821</v>
+        <v>111422</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>135982</v>
+        <v>136836</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6584630775998621</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5847189666467881</v>
+        <v>0.5932471443833081</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7240096829216919</v>
+        <v>0.7285552474415262</v>
       </c>
     </row>
     <row r="9">
@@ -8956,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5498</v>
+        <v>5098</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01230854563929444</v>
@@ -8965,7 +8965,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06656901992171117</v>
+        <v>0.06173428037686352</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -8977,7 +8977,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6898</v>
+        <v>5967</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01794416440760085</v>
@@ -8986,7 +8986,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06337391682459134</v>
+        <v>0.05482326460368757</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -8995,19 +8995,19 @@
         <v>2970</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8616</v>
+        <v>7970</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01551286613408208</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00506815143157114</v>
+        <v>0.005014609829823762</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04500783958186766</v>
+        <v>0.04163309300941117</v>
       </c>
     </row>
     <row r="12">
@@ -9024,19 +9024,19 @@
         <v>3912</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>978</v>
+        <v>1014</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10861</v>
+        <v>12338</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04737087469120312</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01183846663392944</v>
+        <v>0.01228047330403426</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1315119619265263</v>
+        <v>0.1494047280251765</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -9045,19 +9045,19 @@
         <v>3044</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>961</v>
+        <v>974</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8167</v>
+        <v>8939</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02796853791685857</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.008832285866654854</v>
+        <v>0.008952980269703118</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07503761784860954</v>
+        <v>0.08213133370436018</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>6</v>
@@ -9066,19 +9066,19 @@
         <v>6956</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2946</v>
+        <v>2951</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14229</v>
+        <v>14715</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03633902389915821</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01539031516027074</v>
+        <v>0.01541860812817943</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07433331003003718</v>
+        <v>0.07687108044878607</v>
       </c>
     </row>
     <row r="13">
@@ -9095,19 +9095,19 @@
         <v>24216</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15504</v>
+        <v>15964</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33303</v>
+        <v>33053</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2932246010312615</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1877354918383845</v>
+        <v>0.1933010789137633</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.403257599504538</v>
+        <v>0.4002320722257824</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -9116,19 +9116,19 @@
         <v>36862</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27532</v>
+        <v>27252</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47287</v>
+        <v>47276</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3386818247428336</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2529583277601338</v>
+        <v>0.2503853869896379</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4344636935642778</v>
+        <v>0.4343626508577429</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -9137,19 +9137,19 @@
         <v>61078</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>48741</v>
+        <v>48144</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>74670</v>
+        <v>74077</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3190708336391691</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2546253401534915</v>
+        <v>0.2515058783911971</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3900745149889174</v>
+        <v>0.3869774322044641</v>
       </c>
     </row>
     <row r="14">
@@ -9166,19 +9166,19 @@
         <v>53440</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>44161</v>
+        <v>43922</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>62693</v>
+        <v>62621</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.647095978638241</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5347345807106337</v>
+        <v>0.5318438268940885</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7591376190696659</v>
+        <v>0.7582678155616602</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>62</v>
@@ -9187,19 +9187,19 @@
         <v>66981</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>56734</v>
+        <v>56162</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>77200</v>
+        <v>76462</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.615405472932707</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5212536921090836</v>
+        <v>0.5159972429404591</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7092886229900139</v>
+        <v>0.7025117383419709</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>112</v>
@@ -9208,19 +9208,19 @@
         <v>120420</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>106276</v>
+        <v>106420</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>132319</v>
+        <v>133650</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6290772763275906</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.555185649256834</v>
+        <v>0.5559373387793113</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6912343985481756</v>
+        <v>0.698186557987894</v>
       </c>
     </row>
     <row r="15">
@@ -9362,7 +9362,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4456</v>
+        <v>3616</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02436848050569766</v>
@@ -9371,7 +9371,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1255258312474046</v>
+        <v>0.1018515367233473</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -9383,7 +9383,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5267</v>
+        <v>5100</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02190893053038777</v>
@@ -9392,7 +9392,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1163928738330775</v>
+        <v>0.112705813302422</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6500</v>
+        <v>5722</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02299023690772515</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08049103467308946</v>
+        <v>0.07085304401108977</v>
       </c>
     </row>
     <row r="18">
@@ -9433,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5753</v>
+        <v>6259</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05150868853755806</v>
@@ -9442,7 +9442,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1620336690450883</v>
+        <v>0.1762912414311305</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -9451,19 +9451,19 @@
         <v>3536</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7849</v>
+        <v>8773</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07814815894762318</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01969901404731167</v>
+        <v>0.01977377559116213</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1734657071634952</v>
+        <v>0.1938805830811277</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>6</v>
@@ -9472,19 +9472,19 @@
         <v>5365</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>10234</v>
+        <v>11154</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06643649236940512</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02203983489387126</v>
+        <v>0.02206571450576293</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1267310600928185</v>
+        <v>0.1381300289236355</v>
       </c>
     </row>
     <row r="19">
@@ -9501,19 +9501,19 @@
         <v>7076</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3279</v>
+        <v>2946</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12963</v>
+        <v>12961</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1993103604854102</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09236786675977937</v>
+        <v>0.0829935397635192</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3651364926004677</v>
+        <v>0.3650691250834227</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -9522,19 +9522,19 @@
         <v>6226</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2586</v>
+        <v>2625</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11231</v>
+        <v>11589</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1375844820294771</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05715759209542202</v>
+        <v>0.05802077361564584</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2481999183377714</v>
+        <v>0.2561045044082112</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>14</v>
@@ -9543,19 +9543,19 @@
         <v>13302</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7966</v>
+        <v>7991</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20542</v>
+        <v>20950</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1647213919077743</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09864804533597578</v>
+        <v>0.09895223527906974</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2543849719675532</v>
+        <v>0.259437260542022</v>
       </c>
     </row>
     <row r="20">
@@ -9572,19 +9572,19 @@
         <v>25732</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>19849</v>
+        <v>20060</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>30099</v>
+        <v>30521</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7248124704713341</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5590831532173693</v>
+        <v>0.5650421547648991</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8478161509247287</v>
+        <v>0.85969084222874</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>34</v>
@@ -9593,19 +9593,19 @@
         <v>34497</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>29207</v>
+        <v>28852</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>39462</v>
+        <v>39744</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.762358428492512</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6454539705905912</v>
+        <v>0.6375882502091532</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8720720154266881</v>
+        <v>0.8782940409300537</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>61</v>
@@ -9614,19 +9614,19 @@
         <v>60230</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>52237</v>
+        <v>52308</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>66985</v>
+        <v>67683</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7458518788150954</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6468721902758571</v>
+        <v>0.6477498202546257</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8295107215069971</v>
+        <v>0.838147835069362</v>
       </c>
     </row>
     <row r="21">
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4323</v>
+        <v>4210</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008434977890266598</v>
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04486474713213364</v>
+        <v>0.04369449937149991</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -9742,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5377</v>
+        <v>7694</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01035096451525306</v>
@@ -9751,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0432940421597872</v>
+        <v>0.06195142894891128</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -9763,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7607</v>
+        <v>7500</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.00951387678662744</v>
@@ -9772,7 +9772,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03449108436993555</v>
+        <v>0.03400655190392474</v>
       </c>
     </row>
     <row r="23">
@@ -9792,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5943</v>
+        <v>3862</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.00966836141648313</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06167580209081686</v>
+        <v>0.04008278300636765</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -9810,19 +9810,19 @@
         <v>6162</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1906</v>
+        <v>2166</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>14327</v>
+        <v>13337</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.049614187829202</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01534352150215777</v>
+        <v>0.0174432424970192</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1153593138257668</v>
+        <v>0.1073943915637928</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6</v>
@@ -9831,19 +9831,19 @@
         <v>7093</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2814</v>
+        <v>2763</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>15350</v>
+        <v>15383</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03216199862087053</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01275758759968236</v>
+        <v>0.01253006812628255</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06959846069686978</v>
+        <v>0.06975038585523656</v>
       </c>
     </row>
     <row r="24">
@@ -9863,7 +9863,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9949</v>
+        <v>10609</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02793313249414986</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1032574973428514</v>
+        <v>0.1100982510545665</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -9881,19 +9881,19 @@
         <v>4810</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1183</v>
+        <v>1212</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11205</v>
+        <v>12243</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03872974027168633</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.009524547003060421</v>
+        <v>0.009756855507088626</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09022363760927106</v>
+        <v>0.09857814050598866</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -9902,19 +9902,19 @@
         <v>7501</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2711</v>
+        <v>2681</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>15499</v>
+        <v>15092</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03401274080859061</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01229333369548536</v>
+        <v>0.01215832156429174</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07027407476139791</v>
+        <v>0.06842773227983784</v>
       </c>
     </row>
     <row r="25">
@@ -9931,19 +9931,19 @@
         <v>27902</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19961</v>
+        <v>19077</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>39269</v>
+        <v>38002</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2895707956196109</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2071582311208711</v>
+        <v>0.1979836197472414</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4075400081773695</v>
+        <v>0.3943928884991225</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>35</v>
@@ -9952,19 +9952,19 @@
         <v>38410</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27318</v>
+        <v>27765</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>50233</v>
+        <v>50067</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3092842075484096</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2199640613233938</v>
+        <v>0.2235643334394619</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4044812351611599</v>
+        <v>0.4031422357084609</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>61</v>
@@ -9973,19 +9973,19 @@
         <v>66312</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>53194</v>
+        <v>52533</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>82186</v>
+        <v>81792</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3006714881276485</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2411899984515526</v>
+        <v>0.2381919218856641</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3726448077759146</v>
+        <v>0.3708597147225161</v>
       </c>
     </row>
     <row r="26">
@@ -10002,19 +10002,19 @@
         <v>64018</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>53609</v>
+        <v>54032</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>73197</v>
+        <v>73501</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6643927325794896</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5563653505917604</v>
+        <v>0.5607498396732109</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7596495315567376</v>
+        <v>0.7628079835485591</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>66</v>
@@ -10023,19 +10023,19 @@
         <v>73524</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>62325</v>
+        <v>60499</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>85978</v>
+        <v>84244</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5920208998354489</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5018504953631946</v>
+        <v>0.4871410218306502</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6923024757820471</v>
+        <v>0.6783407496386218</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>125</v>
@@ -10044,19 +10044,19 @@
         <v>137542</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>122381</v>
+        <v>122486</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>152465</v>
+        <v>153365</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6236398956562629</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5548974114503492</v>
+        <v>0.5553719138308845</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6913021654298918</v>
+        <v>0.6953834253711197</v>
       </c>
     </row>
     <row r="27">
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5835</v>
+        <v>4971</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07222664516893323</v>
@@ -10160,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2214066413743944</v>
+        <v>0.1886063179169734</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5835</v>
+        <v>5880</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03462487198984942</v>
@@ -10194,7 +10194,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1061398375854903</v>
+        <v>0.1069478310008314</v>
       </c>
     </row>
     <row r="29">
@@ -10305,19 +10305,19 @@
         <v>10887</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6691</v>
+        <v>5944</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>15966</v>
+        <v>16381</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4130818917346479</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.253884440423745</v>
+        <v>0.2255421820444052</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6058015841442423</v>
+        <v>0.6215385286805978</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>18</v>
@@ -10326,19 +10326,19 @@
         <v>17271</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>11313</v>
+        <v>11920</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>21575</v>
+        <v>22221</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.6034465384548604</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3952644713937532</v>
+        <v>0.416487348405108</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.7538239684369337</v>
+        <v>0.7763846455096028</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>29</v>
@@ -10347,19 +10347,19 @@
         <v>28159</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>20127</v>
+        <v>20664</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>35305</v>
+        <v>35337</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.5121872599896411</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3660973027482273</v>
+        <v>0.3758617537074946</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6421861631826544</v>
+        <v>0.6427613520051222</v>
       </c>
     </row>
     <row r="32">
@@ -10376,19 +10376,19 @@
         <v>13565</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>9053</v>
+        <v>8546</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>18403</v>
+        <v>19224</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5146914630964189</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3434915828026545</v>
+        <v>0.3242470509330356</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6982574006703021</v>
+        <v>0.729412189458934</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>11</v>
@@ -10397,19 +10397,19 @@
         <v>11350</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7046</v>
+        <v>6400</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>17308</v>
+        <v>16701</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3965534615451396</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2461760315630664</v>
+        <v>0.2236153544903972</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6047355286062468</v>
+        <v>0.583512651594892</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>25</v>
@@ -10418,19 +10418,19 @@
         <v>24915</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>18102</v>
+        <v>17758</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>33061</v>
+        <v>32368</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4531878680205095</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3292621330410107</v>
+        <v>0.3230128586305037</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.601356881915539</v>
+        <v>0.5887533152322985</v>
       </c>
     </row>
     <row r="33">
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4778</v>
+        <v>3744</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01683502590077393</v>
@@ -10534,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.08893195516866659</v>
+        <v>0.0696835526694648</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -10559,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>4563</v>
+        <v>5256</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.007003675733879586</v>
@@ -10568,7 +10568,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03533688889946305</v>
+        <v>0.04070316258565298</v>
       </c>
     </row>
     <row r="35">
@@ -10679,19 +10679,19 @@
         <v>10342</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>5312</v>
+        <v>6000</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>16402</v>
+        <v>16901</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1925049500514125</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09887832261029403</v>
+        <v>0.1116802474424589</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3052954914521917</v>
+        <v>0.3145807133715716</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>9</v>
@@ -10700,19 +10700,19 @@
         <v>8648</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>4577</v>
+        <v>4064</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>15429</v>
+        <v>15007</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.114666969474376</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06069175400180984</v>
+        <v>0.05389411419181352</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2045820062365061</v>
+        <v>0.1989857119975318</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>20</v>
@@ -10721,19 +10721,19 @@
         <v>18990</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>12295</v>
+        <v>11653</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>27565</v>
+        <v>28079</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1470489793955203</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.09520788467259519</v>
+        <v>0.09023310338095027</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2134540141474782</v>
+        <v>0.217430722423376</v>
       </c>
     </row>
     <row r="38">
@@ -10750,19 +10750,19 @@
         <v>42477</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>36377</v>
+        <v>35230</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>47972</v>
+        <v>47054</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.7906600240478135</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.6771102885620506</v>
+        <v>0.6557623879889165</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8929323056027331</v>
+        <v>0.8758514904983343</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>61</v>
@@ -10771,19 +10771,19 @@
         <v>66767</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>59986</v>
+        <v>60408</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>70838</v>
+        <v>71351</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.885333030525624</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7954179937634941</v>
+        <v>0.8010142880024681</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9393082459981902</v>
+        <v>0.9461058858081864</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>103</v>
@@ -10792,19 +10792,19 @@
         <v>109244</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>101006</v>
+        <v>100117</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>115792</v>
+        <v>116615</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8459473448706002</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7821531950058179</v>
+        <v>0.7752713610778033</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8966540186583767</v>
+        <v>0.9030281208428689</v>
       </c>
     </row>
     <row r="39">
@@ -10912,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>5982</v>
+        <v>5754</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.007738646973584908</v>
@@ -10921,7 +10921,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.04892708392940113</v>
+        <v>0.04706806970812947</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1</v>
@@ -10933,7 +10933,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4774</v>
+        <v>5277</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.004814262976450137</v>
@@ -10942,7 +10942,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02429243952797237</v>
+        <v>0.02685247696314997</v>
       </c>
     </row>
     <row r="41">
@@ -10962,7 +10962,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>5783</v>
+        <v>4573</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01474097895852894</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.07787227127820144</v>
+        <v>0.06158283638296348</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>7</v>
@@ -10980,19 +10980,19 @@
         <v>7057</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>3094</v>
+        <v>2907</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>13847</v>
+        <v>13660</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.05772482710081681</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.02530917453148232</v>
+        <v>0.02378204006360538</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1132624378879439</v>
+        <v>0.1117368999095905</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>8</v>
@@ -11001,19 +11001,19 @@
         <v>8152</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>3805</v>
+        <v>4029</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>14914</v>
+        <v>15364</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.04148151246562974</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01936258418084078</v>
+        <v>0.02050158270716671</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.07589400155198059</v>
+        <v>0.07818135720919484</v>
       </c>
     </row>
     <row r="42">
@@ -11030,19 +11030,19 @@
         <v>5067</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1923</v>
+        <v>2040</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>11308</v>
+        <v>10805</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.06822533365839525</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.0258973070873902</v>
+        <v>0.0274715098866137</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1522650081404398</v>
+        <v>0.1454978837825359</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>5</v>
@@ -11051,19 +11051,19 @@
         <v>5514</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2034</v>
+        <v>1880</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>12003</v>
+        <v>12006</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.04510266033043796</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.0166355320152568</v>
+        <v>0.01538083060131516</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.09818340979167985</v>
+        <v>0.09820784404575672</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>10</v>
@@ -11072,19 +11072,19 @@
         <v>10581</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>5446</v>
+        <v>5370</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>19178</v>
+        <v>18842</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.05384056710949971</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02771297016876915</v>
+        <v>0.02732784284804728</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.09759027389977573</v>
+        <v>0.09587835641109643</v>
       </c>
     </row>
     <row r="43">
@@ -11104,7 +11104,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>10867</v>
+        <v>10082</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.03598843869856826</v>
@@ -11113,7 +11113,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1463324690878403</v>
+        <v>0.1357654324441775</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>14</v>
@@ -11122,19 +11122,19 @@
         <v>16174</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>8860</v>
+        <v>9829</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>26576</v>
+        <v>26278</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1323018076288738</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.07247568858972668</v>
+        <v>0.08039814412732547</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2173852511608801</v>
+        <v>0.2149485154846887</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>16</v>
@@ -11143,19 +11143,19 @@
         <v>18847</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>11108</v>
+        <v>11251</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>28681</v>
+        <v>29846</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.09590561643791606</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.05652537874261496</v>
+        <v>0.05725386965185164</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1459478177636907</v>
+        <v>0.1518753638759011</v>
       </c>
     </row>
     <row r="44">
@@ -11172,19 +11172,19 @@
         <v>65428</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>56137</v>
+        <v>57461</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>70133</v>
+        <v>70250</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.8810452486845075</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.7559329327595682</v>
+        <v>0.7737669715560002</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9444013876178357</v>
+        <v>0.9459811101218667</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>84</v>
@@ -11193,19 +11193,19 @@
         <v>92562</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>80967</v>
+        <v>81259</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>101247</v>
+        <v>101070</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.7571320579662865</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.662287157416381</v>
+        <v>0.6646735036348841</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8281707606367885</v>
+        <v>0.8267224199046653</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>140</v>
@@ -11214,19 +11214,19 @@
         <v>157991</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>145740</v>
+        <v>145472</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>168101</v>
+        <v>169181</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.8039580410105044</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.7416213460357539</v>
+        <v>0.7402569577543078</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.8554059895542204</v>
+        <v>0.860903340733213</v>
       </c>
     </row>
     <row r="45">
@@ -11365,19 +11365,19 @@
         <v>5185</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1984</v>
+        <v>1882</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>11800</v>
+        <v>10809</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.05237674819137535</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.0200479383913928</v>
+        <v>0.019014169062257</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1192049801732511</v>
+        <v>0.109197950733587</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>8</v>
@@ -11386,19 +11386,19 @@
         <v>9798</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>4463</v>
+        <v>4846</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>18582</v>
+        <v>18247</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.06967884670121963</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.03174220872526659</v>
+        <v>0.03446395173022605</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1321486477586153</v>
+        <v>0.129769916271644</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>13</v>
@@ -11407,19 +11407,19 @@
         <v>14982</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>8498</v>
+        <v>8465</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>25365</v>
+        <v>25903</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.06253081907774971</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.03546792337221731</v>
+        <v>0.03532960769690056</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1058629522868386</v>
+        <v>0.108109780116912</v>
       </c>
     </row>
     <row r="48">
@@ -11436,19 +11436,19 @@
         <v>9033</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>4082</v>
+        <v>4434</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>17114</v>
+        <v>17172</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.0912582851455154</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.04124298463679051</v>
+        <v>0.04478981731256149</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1728890073627715</v>
+        <v>0.1734824263248847</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>6</v>
@@ -11457,19 +11457,19 @@
         <v>6373</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>2311</v>
+        <v>2320</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>12403</v>
+        <v>13074</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.04532652751259629</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.01643458351837904</v>
+        <v>0.01649626155158153</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.08820339993567657</v>
+        <v>0.09298118217052979</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>14</v>
@@ -11478,19 +11478,19 @@
         <v>15407</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>8717</v>
+        <v>8791</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>25575</v>
+        <v>25278</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.06430234551339127</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.03638184262454088</v>
+        <v>0.03669022513150613</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1067408515522584</v>
+        <v>0.1055016904216223</v>
       </c>
     </row>
     <row r="49">
@@ -11507,19 +11507,19 @@
         <v>32184</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>23648</v>
+        <v>23429</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>42738</v>
+        <v>41796</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3251398921121276</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2389030438600081</v>
+        <v>0.2366917977869599</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4317576331439414</v>
+        <v>0.4222440325428597</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>48</v>
@@ -11528,19 +11528,19 @@
         <v>52576</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>42385</v>
+        <v>41663</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>64819</v>
+        <v>66029</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.373908272431666</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3014320360168081</v>
+        <v>0.2962984265315169</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4609748882003614</v>
+        <v>0.4695770165253422</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>79</v>
@@ -11549,19 +11549,19 @@
         <v>84761</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>71485</v>
+        <v>68746</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>100448</v>
+        <v>100390</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3537605585877292</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2983509879398934</v>
+        <v>0.2869218049402407</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.4192335529149036</v>
+        <v>0.4189906234659077</v>
       </c>
     </row>
     <row r="50">
@@ -11578,19 +11578,19 @@
         <v>52584</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>41693</v>
+        <v>42998</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>61985</v>
+        <v>62459</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.5312250745509816</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.4212044259846312</v>
+        <v>0.4343824635392078</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.6262007983033446</v>
+        <v>0.6309871715515838</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>64</v>
@@ -11599,19 +11599,19 @@
         <v>71865</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>59801</v>
+        <v>59362</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>82861</v>
+        <v>84145</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.5110863533545181</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.4252899964298997</v>
+        <v>0.4221676005534057</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.589284761702755</v>
+        <v>0.5984143568720115</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>115</v>
@@ -11620,19 +11620,19 @@
         <v>124449</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>108525</v>
+        <v>109500</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>139851</v>
+        <v>141003</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.5194062768211298</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.4529455847619868</v>
+        <v>0.4570117022757825</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.5836886483065074</v>
+        <v>0.5884966383858929</v>
       </c>
     </row>
     <row r="51">
@@ -11724,19 +11724,19 @@
         <v>3621</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>934</v>
+        <v>944</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>8943</v>
+        <v>8909</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.006565695977468221</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.001692978084031859</v>
+        <v>0.001711785526025678</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.01621671296148254</v>
+        <v>0.01615529083179545</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>2</v>
@@ -11748,7 +11748,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>7091</v>
+        <v>8830</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.002978188307501889</v>
@@ -11757,7 +11757,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.009463989240561238</v>
+        <v>0.01178413934318498</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>6</v>
@@ -11766,19 +11766,19 @@
         <v>5852</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>2576</v>
+        <v>2232</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>12587</v>
+        <v>12687</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.004499125419936563</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.001980521530913754</v>
+        <v>0.001716237606082064</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.009676650476950575</v>
+        <v>0.009753819959680795</v>
       </c>
     </row>
     <row r="53">
@@ -11795,19 +11795,19 @@
         <v>10084</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>5329</v>
+        <v>4460</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>17321</v>
+        <v>17239</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.01828632848954022</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.009662700608866972</v>
+        <v>0.008088145073686263</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.03140860721579695</v>
+        <v>0.03126031619481918</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>25</v>
@@ -11816,19 +11816,19 @@
         <v>28791</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>19725</v>
+        <v>19656</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>43234</v>
+        <v>42080</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.03842314931591422</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.0263245751884736</v>
+        <v>0.02623172285155487</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.05769906711831881</v>
+        <v>0.05615883337894778</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>35</v>
@@ -11837,19 +11837,19 @@
         <v>38875</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>26500</v>
+        <v>27715</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>53157</v>
+        <v>53836</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.02988606983377694</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.02037218060076634</v>
+        <v>0.0213068377143946</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.04086545811234452</v>
+        <v>0.0413874356351127</v>
       </c>
     </row>
     <row r="54">
@@ -11866,19 +11866,19 @@
         <v>26283</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>17527</v>
+        <v>17367</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>39280</v>
+        <v>40033</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.04766043982082384</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.03178292317364129</v>
+        <v>0.03149213085465896</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.07122902791368681</v>
+        <v>0.07259434050587429</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>23</v>
@@ -11887,19 +11887,19 @@
         <v>24200</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>16181</v>
+        <v>15860</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>36446</v>
+        <v>36277</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.03229665739171372</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.02159412959454144</v>
+        <v>0.02116602006989185</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.04863946248548355</v>
+        <v>0.04841476234355619</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>46</v>
@@ -11908,19 +11908,19 @@
         <v>50483</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>37874</v>
+        <v>37594</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>66404</v>
+        <v>66504</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.03881018963568093</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.02911683127853222</v>
+        <v>0.02890149271430267</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.05104945554130856</v>
+        <v>0.05112683282206947</v>
       </c>
     </row>
     <row r="55">
@@ -11937,19 +11937,19 @@
         <v>140982</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>119648</v>
+        <v>118903</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>160745</v>
+        <v>161964</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2556496495535676</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2169628131188098</v>
+        <v>0.21561227689242</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.291485633377062</v>
+        <v>0.2936974915823153</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>197</v>
@@ -11958,19 +11958,19 @@
         <v>206117</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>182450</v>
+        <v>181009</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>232558</v>
+        <v>231203</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2750775337706813</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2434920605696484</v>
+        <v>0.2415696675966482</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.3103651058034916</v>
+        <v>0.3085567887427577</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>329</v>
@@ -11979,19 +11979,19 @@
         <v>347099</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>313971</v>
+        <v>313595</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>380612</v>
+        <v>381737</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2668410105795909</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2413727323678632</v>
+        <v>0.241084033241306</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2926043650493434</v>
+        <v>0.2934697447963109</v>
       </c>
     </row>
     <row r="56">
@@ -12008,19 +12008,19 @@
         <v>370496</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>348424</v>
+        <v>347784</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>394473</v>
+        <v>392631</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.6718378861586002</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.6318129935085967</v>
+        <v>0.630651891702507</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.7153150183123468</v>
+        <v>0.7119759100943996</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>450</v>
@@ -12029,19 +12029,19 @@
         <v>487966</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>459588</v>
+        <v>461005</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>514915</v>
+        <v>515024</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.6512244712141889</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.6133518993671226</v>
+        <v>0.6152433167882995</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.6871897014600021</v>
+        <v>0.6873354789812673</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>798</v>
@@ -12050,19 +12050,19 @@
         <v>858462</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>821219</v>
+        <v>819133</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>893469</v>
+        <v>894052</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.6599636045310147</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.6313316612192578</v>
+        <v>0.6297282953280511</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.6868762730855851</v>
+        <v>0.6873243946388683</v>
       </c>
     </row>
     <row r="57">
@@ -12401,7 +12401,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3758</v>
+        <v>4169</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008070526529487407</v>
@@ -12410,7 +12410,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03542406552870726</v>
+        <v>0.03929695800150134</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -12435,16 +12435,16 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4294</v>
+        <v>4456</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.00375769136958164</v>
+        <v>0.003757691369581641</v>
       </c>
       <c r="V4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01884387151397885</v>
+        <v>0.0195549667445933</v>
       </c>
     </row>
     <row r="5">
@@ -12461,19 +12461,19 @@
         <v>5966</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2444</v>
+        <v>2452</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11952</v>
+        <v>12702</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0562333102138001</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02303723777299322</v>
+        <v>0.02311077281816645</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.112657519549822</v>
+        <v>0.1197310947607006</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -12482,19 +12482,19 @@
         <v>5210</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2483</v>
+        <v>2501</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9953</v>
+        <v>9456</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04278750480625195</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.020389139154715</v>
+        <v>0.02054244086660766</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08173937443939649</v>
+        <v>0.07766302488956595</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -12503,19 +12503,19 @@
         <v>11176</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6230</v>
+        <v>6419</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19149</v>
+        <v>19419</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.04904796213235244</v>
+        <v>0.04904796213235245</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02734306837493652</v>
+        <v>0.0281722055635335</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08404391268098817</v>
+        <v>0.08522646374433884</v>
       </c>
     </row>
     <row r="6">
@@ -12548,7 +12548,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3256</v>
+        <v>3716</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.008148034220725605</v>
@@ -12557,7 +12557,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02673795618047697</v>
+        <v>0.0305204612776374</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -12569,16 +12569,16 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>3618</v>
+        <v>3197</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.004354254749410101</v>
+        <v>0.004354254749410103</v>
       </c>
       <c r="V6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01587883339075729</v>
+        <v>0.01403092344567066</v>
       </c>
     </row>
     <row r="7">
@@ -12595,19 +12595,19 @@
         <v>36718</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26070</v>
+        <v>26527</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49264</v>
+        <v>50002</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3461062617242134</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2457377344430783</v>
+        <v>0.2500429843842224</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4643630532821565</v>
+        <v>0.4713228332318932</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>63</v>
@@ -12616,19 +12616,19 @@
         <v>41636</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33486</v>
+        <v>33630</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50415</v>
+        <v>52204</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3419473530840887</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.275008108376197</v>
+        <v>0.2761913524477854</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4140449399477916</v>
+        <v>0.4287388973119882</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>93</v>
@@ -12637,19 +12637,19 @@
         <v>78354</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>64611</v>
+        <v>65961</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>93526</v>
+        <v>93706</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3438837688863012</v>
+        <v>0.3438837688863013</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2835688999374261</v>
+        <v>0.2894912273743897</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4104715551178729</v>
+        <v>0.4112632139297441</v>
       </c>
     </row>
     <row r="8">
@@ -12666,19 +12666,19 @@
         <v>62549</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>51066</v>
+        <v>50838</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>74008</v>
+        <v>72956</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.589589901532499</v>
+        <v>0.5895899015324991</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4813465664283929</v>
+        <v>0.4791996990856047</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6976041138898993</v>
+        <v>0.6876864277846736</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>130</v>
@@ -12687,19 +12687,19 @@
         <v>73924</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>64703</v>
+        <v>63637</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>81867</v>
+        <v>81676</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6071171078889337</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5313930141691513</v>
+        <v>0.5226358006101467</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6723525306364729</v>
+        <v>0.6707826578964927</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>199</v>
@@ -12708,19 +12708,19 @@
         <v>136472</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>121599</v>
+        <v>121929</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>150305</v>
+        <v>149233</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.5989563228623545</v>
+        <v>0.5989563228623546</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5336792244287332</v>
+        <v>0.535126608919791</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6596677833061585</v>
+        <v>0.6549612420492679</v>
       </c>
     </row>
     <row r="9">
@@ -12828,7 +12828,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3680</v>
+        <v>3245</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006677710109524889</v>
@@ -12837,7 +12837,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03399840614630201</v>
+        <v>0.02997720340142858</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -12849,7 +12849,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3724</v>
+        <v>3508</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003820903110911016</v>
@@ -12858,7 +12858,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01968608609364154</v>
+        <v>0.01854468431644171</v>
       </c>
     </row>
     <row r="11">
@@ -12878,7 +12878,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6883</v>
+        <v>5750</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02284092591911743</v>
@@ -12887,7 +12887,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08504903481427277</v>
+        <v>0.07104274192931662</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -12899,7 +12899,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6024</v>
+        <v>5996</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01093479338462661</v>
@@ -12908,7 +12908,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05565543664376141</v>
+        <v>0.05538994889476096</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -12917,19 +12917,19 @@
         <v>3032</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8158</v>
+        <v>8351</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01602838418043576</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004762391183803842</v>
+        <v>0.004686324744819084</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04312236595582247</v>
+        <v>0.04414342613360948</v>
       </c>
     </row>
     <row r="12">
@@ -12949,7 +12949,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9692</v>
+        <v>10108</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0371159168853715</v>
@@ -12958,7 +12958,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1197523126020462</v>
+        <v>0.1248911036706759</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -12967,19 +12967,19 @@
         <v>3360</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1267</v>
+        <v>1272</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7314</v>
+        <v>7524</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03103813925731592</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01170349502667351</v>
+        <v>0.01174671657576846</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06757339096953863</v>
+        <v>0.06950778805842221</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -12988,19 +12988,19 @@
         <v>6364</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2515</v>
+        <v>2606</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13338</v>
+        <v>13255</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03363828771825045</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01329424848718789</v>
+        <v>0.01377789398966695</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07050557490442246</v>
+        <v>0.07006416506541015</v>
       </c>
     </row>
     <row r="13">
@@ -13017,19 +13017,19 @@
         <v>6907</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2731</v>
+        <v>2797</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13592</v>
+        <v>14177</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.08534521708533092</v>
+        <v>0.08534521708533091</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03374536712815344</v>
+        <v>0.03456393976436532</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1679402397173578</v>
+        <v>0.1751724257237154</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -13038,19 +13038,19 @@
         <v>16391</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11044</v>
+        <v>10812</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23665</v>
+        <v>23690</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1514237222701394</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1020323525996796</v>
+        <v>0.0998890143693862</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2186310014488639</v>
+        <v>0.2188573245239162</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>30</v>
@@ -13059,19 +13059,19 @@
         <v>23298</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16077</v>
+        <v>16294</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33022</v>
+        <v>33056</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1231545202572154</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08498618774524103</v>
+        <v>0.08613190172122408</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1745555492726385</v>
+        <v>0.1747335948716142</v>
       </c>
     </row>
     <row r="14">
@@ -13088,19 +13088,19 @@
         <v>69172</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>61126</v>
+        <v>60674</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>74813</v>
+        <v>74814</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8546979401101801</v>
+        <v>0.8546979401101797</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7552775632320053</v>
+        <v>0.7496919955866396</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9243989765125068</v>
+        <v>0.9244099904275181</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>117</v>
@@ -13109,19 +13109,19 @@
         <v>86587</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>78979</v>
+        <v>78024</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>92940</v>
+        <v>92815</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7999256349783931</v>
+        <v>0.7999256349783932</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7296374893657477</v>
+        <v>0.7208163964482845</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8586118383057635</v>
+        <v>0.857459551565843</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>168</v>
@@ -13130,19 +13130,19 @@
         <v>155760</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>145042</v>
+        <v>145235</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>164433</v>
+        <v>164513</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8233579047331873</v>
+        <v>0.8233579047331875</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7666998717310028</v>
+        <v>0.7677216109943312</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8692041716480408</v>
+        <v>0.8696256034661347</v>
       </c>
     </row>
     <row r="15">
@@ -13284,7 +13284,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4442</v>
+        <v>5293</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01979229947275741</v>
@@ -13293,7 +13293,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05940724131448982</v>
+        <v>0.07078714631867304</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -13305,16 +13305,16 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2907</v>
+        <v>3564</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.004905966284900437</v>
+        <v>0.004905966284900436</v>
       </c>
       <c r="O17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02535934283048071</v>
+        <v>0.03109200208567231</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -13323,19 +13323,19 @@
         <v>2042</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6149</v>
+        <v>6009</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01078342092322642</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0029353754438567</v>
+        <v>0.002955717956952634</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03246491277784357</v>
+        <v>0.03173018882527421</v>
       </c>
     </row>
     <row r="18">
@@ -13352,19 +13352,19 @@
         <v>3897</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1206</v>
+        <v>1374</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8706</v>
+        <v>8647</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.05212163517298612</v>
+        <v>0.05212163517298613</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01613119881986702</v>
+        <v>0.01837546343412002</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1164237975753128</v>
+        <v>0.1156367050714924</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -13373,19 +13373,19 @@
         <v>3197</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1077</v>
+        <v>636</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9053</v>
+        <v>9357</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02789489171217766</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.009395712702356014</v>
+        <v>0.005550311257066389</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07898347483597994</v>
+        <v>0.08164075046143161</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>9</v>
@@ -13394,19 +13394,19 @@
         <v>7095</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3449</v>
+        <v>3393</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>13871</v>
+        <v>14041</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03746014756990718</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0182129965501828</v>
+        <v>0.01791404124754136</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07323760979166098</v>
+        <v>0.07413926251356047</v>
       </c>
     </row>
     <row r="19">
@@ -13423,19 +13423,19 @@
         <v>16122</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9922</v>
+        <v>9677</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23655</v>
+        <v>23717</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2156038001063872</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1326850888394419</v>
+        <v>0.1294123572079235</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3163460600536362</v>
+        <v>0.3171764198120745</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -13444,19 +13444,19 @@
         <v>22524</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16179</v>
+        <v>16402</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>30274</v>
+        <v>30405</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1965193395801961</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1411584270513438</v>
+        <v>0.1431032103199721</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2641316180168162</v>
+        <v>0.2652741723383619</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>52</v>
@@ -13465,19 +13465,19 @@
         <v>38646</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29952</v>
+        <v>30095</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>48734</v>
+        <v>49284</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2040543080391251</v>
+        <v>0.2040543080391252</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1581499860206714</v>
+        <v>0.15890339150382</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2573195284931493</v>
+        <v>0.2602231699244496</v>
       </c>
     </row>
     <row r="20">
@@ -13494,19 +13494,19 @@
         <v>53277</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>45534</v>
+        <v>45295</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>60579</v>
+        <v>60313</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.712482265247869</v>
+        <v>0.7124822652478692</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6089369222004348</v>
+        <v>0.6057426291836712</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8101385696920345</v>
+        <v>0.8065785905515538</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>127</v>
@@ -13515,19 +13515,19 @@
         <v>88332</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>80175</v>
+        <v>79679</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>95550</v>
+        <v>95001</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7706798024227259</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6995100942672094</v>
+        <v>0.6951795345770617</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8336563670835089</v>
+        <v>0.8288626869809257</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>190</v>
@@ -13536,19 +13536,19 @@
         <v>141609</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>130123</v>
+        <v>129588</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>151786</v>
+        <v>151078</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7477021234677411</v>
+        <v>0.7477021234677412</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.687056831732933</v>
+        <v>0.6842319226083367</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8014362036180812</v>
+        <v>0.7977024933107172</v>
       </c>
     </row>
     <row r="21">
@@ -13656,16 +13656,16 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3831</v>
+        <v>3858</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.006862316428962812</v>
+        <v>0.006862316428962811</v>
       </c>
       <c r="O22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03588825266689293</v>
+        <v>0.03614239422978677</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -13677,16 +13677,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3787</v>
+        <v>4466</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.003721037315037978</v>
+        <v>0.003721037315037979</v>
       </c>
       <c r="V22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01923931769221133</v>
+        <v>0.0226868191718124</v>
       </c>
     </row>
     <row r="23">
@@ -13706,16 +13706,16 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8145</v>
+        <v>7723</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.02568304448875229</v>
+        <v>0.0256830444887523</v>
       </c>
       <c r="H23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09039505983203247</v>
+        <v>0.08570972198901881</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -13724,19 +13724,19 @@
         <v>6396</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2815</v>
+        <v>2910</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>13589</v>
+        <v>13704</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.05992830506771826</v>
+        <v>0.05992830506771824</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.026374958113502</v>
+        <v>0.02726214073572364</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1273166156669541</v>
+        <v>0.1283947611816268</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>10</v>
@@ -13745,19 +13745,19 @@
         <v>8711</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4101</v>
+        <v>4272</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>16249</v>
+        <v>16018</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.04425226871451292</v>
+        <v>0.04425226871451293</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02083653412093346</v>
+        <v>0.02170273528634756</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08255160257191176</v>
+        <v>0.08137767829226224</v>
       </c>
     </row>
     <row r="24">
@@ -13777,16 +13777,16 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>21066</v>
+        <v>17943</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.04692613579799134</v>
+        <v>0.04692613579799136</v>
       </c>
       <c r="H24" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2337974600707352</v>
+        <v>0.1991321544129557</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -13798,7 +13798,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5219</v>
+        <v>4833</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01406763714346033</v>
@@ -13807,7 +13807,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04889600572562684</v>
+        <v>0.04528186990544106</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -13816,19 +13816,19 @@
         <v>5730</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>936</v>
+        <v>831</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>23105</v>
+        <v>21704</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.02910887236000747</v>
+        <v>0.02910887236000748</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.004754137565760143</v>
+        <v>0.004224017139761574</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1173813399183272</v>
+        <v>0.1102617960926763</v>
       </c>
     </row>
     <row r="25">
@@ -13845,19 +13845,19 @@
         <v>14752</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7117</v>
+        <v>7495</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>25361</v>
+        <v>27729</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.163717651056621</v>
+        <v>0.1637176510566211</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07898468158497898</v>
+        <v>0.08317825738122962</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2814631963693713</v>
+        <v>0.3077431594967302</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -13866,19 +13866,19 @@
         <v>9463</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4439</v>
+        <v>4704</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17521</v>
+        <v>17696</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.08865849819480529</v>
+        <v>0.08865849819480526</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04158990956027688</v>
+        <v>0.04406773246332758</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1641587380160452</v>
+        <v>0.1657897711782366</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>19</v>
@@ -13887,19 +13887,19 @@
         <v>24215</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>14423</v>
+        <v>14279</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>37434</v>
+        <v>37211</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1230174135311169</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07327269757306012</v>
+        <v>0.07254201826972849</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1901739635168366</v>
+        <v>0.1890442905655906</v>
       </c>
     </row>
     <row r="26">
@@ -13916,19 +13916,19 @@
         <v>68811</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>54762</v>
+        <v>54713</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>78230</v>
+        <v>78714</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7636731686566353</v>
+        <v>0.7636731686566355</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6077566987187975</v>
+        <v>0.6072086535600515</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.868207245060383</v>
+        <v>0.8735783793365514</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>118</v>
@@ -13937,19 +13937,19 @@
         <v>88642</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>78572</v>
+        <v>78999</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>95106</v>
+        <v>95180</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8304832431650533</v>
+        <v>0.8304832431650532</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7361393563666537</v>
+        <v>0.7401436264796911</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8910504987832296</v>
+        <v>0.8917416271197601</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>168</v>
@@ -13958,19 +13958,19 @@
         <v>157452</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>140328</v>
+        <v>142061</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>169526</v>
+        <v>169656</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7999004080793247</v>
+        <v>0.7999004080793248</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7129016318773482</v>
+        <v>0.7217087504522304</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8612376125503819</v>
+        <v>0.8618986623713719</v>
       </c>
     </row>
     <row r="27">
@@ -14159,16 +14159,16 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4808</v>
+        <v>4655</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.0795415799327777</v>
+        <v>0.07954157993277773</v>
       </c>
       <c r="H30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2557603142191577</v>
+        <v>0.2476427868354202</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -14193,7 +14193,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4916</v>
+        <v>4905</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05017292071481504</v>
@@ -14202,7 +14202,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1649383658479111</v>
+        <v>0.1645844352162748</v>
       </c>
     </row>
     <row r="31">
@@ -14219,19 +14219,19 @@
         <v>2534</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>669</v>
+        <v>715</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6502</v>
+        <v>6206</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1348091423772846</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03558390929422736</v>
+        <v>0.03805789958584781</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3458681227746064</v>
+        <v>0.3301438246828084</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -14240,19 +14240,19 @@
         <v>1179</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>2947</v>
+        <v>3147</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.107151101923694</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03267360949839061</v>
+        <v>0.03368373485893816</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2678125379674198</v>
+        <v>0.2859441345610725</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>6</v>
@@ -14261,19 +14261,19 @@
         <v>3713</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1331</v>
+        <v>1351</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>7813</v>
+        <v>7706</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1245971304282561</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04466945699942561</v>
+        <v>0.04531938255909067</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.26214311920976</v>
+        <v>0.2585604512657731</v>
       </c>
     </row>
     <row r="32">
@@ -14290,19 +14290,19 @@
         <v>14769</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10988</v>
+        <v>10757</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>17419</v>
+        <v>17416</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.7856492776899375</v>
+        <v>0.7856492776899378</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5845120199384883</v>
+        <v>0.5722081527807374</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9266132811088501</v>
+        <v>0.9264327890800887</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>21</v>
@@ -14311,19 +14311,19 @@
         <v>9825</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>8057</v>
+        <v>7857</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>10644</v>
+        <v>10633</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.892848898076306</v>
+        <v>0.8928488980763061</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7321874620325802</v>
+        <v>0.7140558654389276</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9673263905016094</v>
+        <v>0.9663162651410619</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>39</v>
@@ -14332,19 +14332,19 @@
         <v>24594</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>20367</v>
+        <v>20621</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>27458</v>
+        <v>27896</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8252299488569288</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6833737061172996</v>
+        <v>0.6919234454865247</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.921318721083771</v>
+        <v>0.9360175401670106</v>
       </c>
     </row>
     <row r="33">
@@ -14486,7 +14486,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5559</v>
+        <v>5461</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0207731732227291</v>
@@ -14495,7 +14495,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.08141790051892163</v>
+        <v>0.07998526650728245</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2</v>
@@ -14507,7 +14507,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>2847</v>
+        <v>2842</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01124281443420252</v>
@@ -14516,7 +14516,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03686000166092099</v>
+        <v>0.03679716536541977</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>4</v>
@@ -14525,19 +14525,19 @@
         <v>2287</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>705</v>
+        <v>802</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>5810</v>
+        <v>6588</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01571497956983802</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.004847620045006043</v>
+        <v>0.005513568096287422</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03992716460717033</v>
+        <v>0.04527683917824068</v>
       </c>
     </row>
     <row r="36">
@@ -14557,7 +14557,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2150</v>
+        <v>2143</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.006283951001640252</v>
@@ -14566,7 +14566,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03149550487688261</v>
+        <v>0.0313925750188417</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2</v>
@@ -14578,7 +14578,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>5799</v>
+        <v>5605</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01663045521546758</v>
@@ -14587,7 +14587,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.07509529565987472</v>
+        <v>0.07257369686904099</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3</v>
@@ -14599,16 +14599,16 @@
         <v>312</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6084</v>
+        <v>5582</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0117753100475344</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.002144343616606907</v>
+        <v>0.002144055942492401</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04181647879383934</v>
+        <v>0.03836051200106659</v>
       </c>
     </row>
     <row r="37">
@@ -14625,19 +14625,19 @@
         <v>11000</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>6462</v>
+        <v>6588</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>17463</v>
+        <v>17682</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1611004381306977</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09464561657560133</v>
+        <v>0.0964816844892529</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2557687274296749</v>
+        <v>0.2589648044935929</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>34</v>
@@ -14646,19 +14646,19 @@
         <v>21534</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>15205</v>
+        <v>15770</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>28385</v>
+        <v>28644</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.2788481188145154</v>
+        <v>0.2788481188145153</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1968835544341375</v>
+        <v>0.2042026439074107</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3675531711813467</v>
+        <v>0.3709050462200651</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>49</v>
@@ -14667,19 +14667,19 @@
         <v>32534</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>25342</v>
+        <v>25212</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>42340</v>
+        <v>42912</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2235944726464342</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1741681340618393</v>
+        <v>0.1732752581346987</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2909874761087848</v>
+        <v>0.2949166436860214</v>
       </c>
     </row>
     <row r="38">
@@ -14696,19 +14696,19 @@
         <v>55431</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>48619</v>
+        <v>48492</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>60259</v>
+        <v>60104</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.8118424376449331</v>
+        <v>0.811842437644933</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7120717660730073</v>
+        <v>0.7102110238386616</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8825542561910182</v>
+        <v>0.8802802107733334</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>104</v>
@@ -14717,19 +14717,19 @@
         <v>53539</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>46450</v>
+        <v>46951</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>59761</v>
+        <v>60036</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.6932786115358146</v>
+        <v>0.6932786115358145</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6014753503451116</v>
+        <v>0.6079648267581239</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7738450911080006</v>
+        <v>0.7774120272796998</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>187</v>
@@ -14738,19 +14738,19 @@
         <v>108970</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>98482</v>
+        <v>99417</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>116294</v>
+        <v>116860</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.7489152377361935</v>
+        <v>0.7489152377361934</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6768334749231856</v>
+        <v>0.6832618960864461</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.799250608472567</v>
+        <v>0.8031410981518438</v>
       </c>
     </row>
     <row r="39">
@@ -14845,7 +14845,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>5921</v>
+        <v>5794</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.009141662799757862</v>
@@ -14854,7 +14854,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03083203359951887</v>
+        <v>0.03017139859696467</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2</v>
@@ -14866,7 +14866,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>4734</v>
+        <v>4249</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.005093006517084415</v>
@@ -14875,7 +14875,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01778423389296231</v>
+        <v>0.0159610858707793</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4</v>
@@ -14884,19 +14884,19 @@
         <v>3111</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>720</v>
+        <v>823</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>7508</v>
+        <v>7865</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.006789700444883242</v>
+        <v>0.006789700444883243</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.001570523610986718</v>
+        <v>0.001796117444919231</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01638517759974191</v>
+        <v>0.01716467658277281</v>
       </c>
     </row>
     <row r="41">
@@ -14913,19 +14913,19 @@
         <v>5255</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1929</v>
+        <v>1958</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>11988</v>
+        <v>12739</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02736368363854809</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01004373449954083</v>
+        <v>0.01019745982429706</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.06242548247903584</v>
+        <v>0.06633722566807473</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>19</v>
@@ -14934,19 +14934,19 @@
         <v>15226</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>9508</v>
+        <v>9559</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>24063</v>
+        <v>23605</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.05719952191520804</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03571949930082186</v>
+        <v>0.03591169195742348</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.09039564961691696</v>
+        <v>0.08867408028439409</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>24</v>
@@ -14955,19 +14955,19 @@
         <v>20481</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>13524</v>
+        <v>13395</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>30157</v>
+        <v>30293</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.04469604369912954</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02951335374685339</v>
+        <v>0.02923347110190493</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.06581381773323902</v>
+        <v>0.06611022610179364</v>
       </c>
     </row>
     <row r="42">
@@ -14984,19 +14984,19 @@
         <v>20546</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>12663</v>
+        <v>12819</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>32136</v>
+        <v>32761</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.106995462306166</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.06594003538599785</v>
+        <v>0.06675445180449274</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1673500149107021</v>
+        <v>0.1706025730239442</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>25</v>
@@ -15005,19 +15005,19 @@
         <v>21804</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>14145</v>
+        <v>14291</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>32524</v>
+        <v>31528</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.08190978871740091</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.05313712716889391</v>
+        <v>0.05368546883257224</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1221833432079502</v>
+        <v>0.1184382835705504</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>43</v>
@@ -15026,19 +15026,19 @@
         <v>42350</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>30862</v>
+        <v>31351</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>57389</v>
+        <v>58459</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.09242258779964251</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.06735198244065949</v>
+        <v>0.06841803313280002</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1252424531586809</v>
+        <v>0.1275764585449553</v>
       </c>
     </row>
     <row r="43">
@@ -15055,19 +15055,19 @@
         <v>25622</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>16216</v>
+        <v>15761</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>39706</v>
+        <v>38214</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1334248252140164</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.08444478532263901</v>
+        <v>0.08207576840613283</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2067706285503755</v>
+        <v>0.1990003868011988</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>52</v>
@@ -15076,19 +15076,19 @@
         <v>40514</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>30793</v>
+        <v>31000</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>52489</v>
+        <v>51853</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1521962233410022</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1156804332746803</v>
+        <v>0.1164581345116448</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1971827128392666</v>
+        <v>0.1947952852087187</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>72</v>
@@ -15097,19 +15097,19 @@
         <v>66135</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>52589</v>
+        <v>51002</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>83727</v>
+        <v>81889</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1443295843885544</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1147662143915385</v>
+        <v>0.1113031333799249</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1827213955534752</v>
+        <v>0.1787095603145859</v>
       </c>
     </row>
     <row r="44">
@@ -15126,19 +15126,19 @@
         <v>138853</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>122924</v>
+        <v>123923</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>152097</v>
+        <v>152241</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.7230743660415118</v>
+        <v>0.7230743660415117</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6401275876813246</v>
+        <v>0.6453289892482816</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.792042669269976</v>
+        <v>0.7927948554536695</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>230</v>
@@ -15147,19 +15147,19 @@
         <v>187294</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>171960</v>
+        <v>171416</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>200941</v>
+        <v>199990</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.7036014595093045</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.6459961439218058</v>
+        <v>0.6439519572938649</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.7548656737389603</v>
+        <v>0.7512948049321875</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>342</v>
@@ -15168,19 +15168,19 @@
         <v>326146</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>303571</v>
+        <v>305088</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>343038</v>
+        <v>346678</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.7117620836677903</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.6624957600379788</v>
+        <v>0.665805008687118</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.7486247212168554</v>
+        <v>0.7565692601428849</v>
       </c>
     </row>
     <row r="45">
@@ -15272,19 +15272,19 @@
         <v>3081</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>915</v>
+        <v>890</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>8574</v>
+        <v>8616</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.03036765184804536</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.009016889251966413</v>
+        <v>0.008768395008529179</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.08451085872346417</v>
+        <v>0.08492798643711204</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1</v>
@@ -15296,7 +15296,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>4910</v>
+        <v>6755</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.009004868260294259</v>
@@ -15305,7 +15305,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.03807623799197186</v>
+        <v>0.05238627339284012</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>4</v>
@@ -15314,19 +15314,19 @@
         <v>4242</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1053</v>
+        <v>1134</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>10017</v>
+        <v>11650</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01841145219229036</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.004570913675558777</v>
+        <v>0.004919934736443391</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.04347721957596924</v>
+        <v>0.05056569326418339</v>
       </c>
     </row>
     <row r="47">
@@ -15346,7 +15346,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>6724</v>
+        <v>6654</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.02151965522019994</v>
@@ -15355,7 +15355,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.06628031428075312</v>
+        <v>0.06558501708502416</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>4</v>
@@ -15364,19 +15364,19 @@
         <v>3310</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1189</v>
+        <v>722</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>7961</v>
+        <v>8417</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.0256692225978486</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.009221750387420803</v>
+        <v>0.005595790630017948</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.06173847130813342</v>
+        <v>0.06527045489111284</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>6</v>
@@ -15385,19 +15385,19 @@
         <v>5493</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>2156</v>
+        <v>2041</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>12233</v>
+        <v>11958</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.0238420611860883</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.009358930358322125</v>
+        <v>0.008856377840917378</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.0530931900728068</v>
+        <v>0.05190004541310206</v>
       </c>
     </row>
     <row r="48">
@@ -15414,19 +15414,19 @@
         <v>3768</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1147</v>
+        <v>1105</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>9245</v>
+        <v>9855</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.03713720866515455</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.01130685182760339</v>
+        <v>0.01088749751818473</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.0911301468422068</v>
+        <v>0.09714410034570008</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>10</v>
@@ -15435,19 +15435,19 @@
         <v>8758</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>4187</v>
+        <v>4597</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>16476</v>
+        <v>17317</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.06791991332488886</v>
+        <v>0.06791991332488888</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.03247206741587082</v>
+        <v>0.03565120777729831</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1277675562487368</v>
+        <v>0.1342956454594545</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>14</v>
@@ -15456,19 +15456,19 @@
         <v>12526</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>7335</v>
+        <v>6917</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>21629</v>
+        <v>20720</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.05436549548199761</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.03183663271764281</v>
+        <v>0.03001998084378611</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.09387608648544393</v>
+        <v>0.08993146525234719</v>
       </c>
     </row>
     <row r="49">
@@ -15485,19 +15485,19 @@
         <v>24207</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>16199</v>
+        <v>15553</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>34027</v>
+        <v>33920</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2386085147484555</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1596723934481201</v>
+        <v>0.1533072369492501</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3354070713854886</v>
+        <v>0.3343483448451293</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>34</v>
@@ -15506,19 +15506,19 @@
         <v>28154</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>19978</v>
+        <v>19751</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>37842</v>
+        <v>36611</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.218334449151063</v>
+        <v>0.2183344491510631</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1549265590163917</v>
+        <v>0.1531667564511113</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2934663386085403</v>
+        <v>0.2839196204097283</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>55</v>
@@ -15527,19 +15527,19 @@
         <v>52361</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>40513</v>
+        <v>40559</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>66987</v>
+        <v>66780</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.227261642505866</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1758369914734827</v>
+        <v>0.1760364604514449</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2907416520502624</v>
+        <v>0.2898409775468791</v>
       </c>
     </row>
     <row r="50">
@@ -15556,19 +15556,19 @@
         <v>68212</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>57883</v>
+        <v>57555</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>77236</v>
+        <v>77753</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.6723669695181446</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.5705522346498818</v>
+        <v>0.5673200642821049</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.7613150448166632</v>
+        <v>0.7664115308780239</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>113</v>
@@ -15577,19 +15577,19 @@
         <v>87566</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>77036</v>
+        <v>77234</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>97398</v>
+        <v>96623</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.6790715466659052</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.597406378208802</v>
+        <v>0.5989488991377201</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.7553170025523965</v>
+        <v>0.7493030862676289</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>179</v>
@@ -15598,19 +15598,19 @@
         <v>155779</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>140729</v>
+        <v>140493</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>168506</v>
+        <v>169455</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.6761193486337576</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.6108002314212494</v>
+        <v>0.6097759377680666</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.7313594256568051</v>
+        <v>0.7354778098001589</v>
       </c>
     </row>
     <row r="51">
@@ -15702,19 +15702,19 @@
         <v>5693</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>2036</v>
+        <v>2466</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>12188</v>
+        <v>12957</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.007771761285400408</v>
+        <v>0.00777176128540041</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.00278006815684328</v>
+        <v>0.003367041748615359</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.01663973293984035</v>
+        <v>0.01768989025752762</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>5</v>
@@ -15723,19 +15723,19 @@
         <v>3972</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>8335</v>
+        <v>9483</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.004249543550768506</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.001463790949139377</v>
+        <v>0.001466018976028565</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.008916799091025312</v>
+        <v>0.01014562102925387</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>11</v>
@@ -15744,19 +15744,19 @@
         <v>9665</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>5043</v>
+        <v>5185</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>16731</v>
+        <v>17147</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.005796990122004905</v>
+        <v>0.005796990122004908</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.003024933172537894</v>
+        <v>0.003110313939857342</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.01003547665567733</v>
+        <v>0.01028516898389262</v>
       </c>
     </row>
     <row r="53">
@@ -15773,19 +15773,19 @@
         <v>20465</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>13015</v>
+        <v>13242</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>31092</v>
+        <v>30240</v>
       </c>
       <c r="G53" s="6" t="n">
-        <v>0.02793958432198781</v>
+        <v>0.02793958432198782</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.01776820402450026</v>
+        <v>0.01807827332864075</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.0424492251806837</v>
+        <v>0.04128585951051979</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>44</v>
@@ -15794,19 +15794,19 @@
         <v>32757</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>24157</v>
+        <v>23319</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>44903</v>
+        <v>43927</v>
       </c>
       <c r="N53" s="6" t="n">
-        <v>0.03504400902483659</v>
+        <v>0.03504400902483658</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.02584419345367089</v>
+        <v>0.02494748507697885</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.04803824421642496</v>
+        <v>0.04699465169481977</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>65</v>
@@ -15815,19 +15815,19 @@
         <v>53221</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>41285</v>
+        <v>42300</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>68643</v>
+        <v>68893</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.03192276029028627</v>
+        <v>0.03192276029028628</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.02476319537578903</v>
+        <v>0.02537174923568404</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.04117290984972306</v>
+        <v>0.04132299776544587</v>
       </c>
     </row>
     <row r="54">
@@ -15844,19 +15844,19 @@
         <v>37368</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>25625</v>
+        <v>25367</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>53120</v>
+        <v>53689</v>
       </c>
       <c r="G54" s="6" t="n">
-        <v>0.05101702511697972</v>
+        <v>0.05101702511697973</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.03498453279728021</v>
+        <v>0.03463228042736932</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.07252293928607582</v>
+        <v>0.073299607022628</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>50</v>
@@ -15865,19 +15865,19 @@
         <v>40897</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>30402</v>
+        <v>29126</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>54933</v>
+        <v>52902</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.0437526891513238</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.03252532672299072</v>
+        <v>0.03115960225868934</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.05876922781594239</v>
+        <v>0.056595693866378</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>83</v>
@@ -15886,19 +15886,19 @@
         <v>78265</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>61344</v>
+        <v>61701</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>98603</v>
+        <v>98723</v>
       </c>
       <c r="U54" s="6" t="n">
-        <v>0.0469441930926718</v>
+        <v>0.04694419309267181</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.03679463492445347</v>
+        <v>0.03700886083079005</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.05914337841676624</v>
+        <v>0.05921517296826976</v>
       </c>
     </row>
     <row r="55">
@@ -15915,19 +15915,19 @@
         <v>137862</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>115584</v>
+        <v>114621</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>165028</v>
+        <v>165166</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1882170146425349</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1578026045127987</v>
+        <v>0.1564870775914728</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2253063120715122</v>
+        <v>0.2254941002779375</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>254</v>
@@ -15936,19 +15936,19 @@
         <v>181395</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>159365</v>
+        <v>160222</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>201787</v>
+        <v>203989</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1940616113314414</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1704934141072758</v>
+        <v>0.1714097276002664</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2158774588133012</v>
+        <v>0.2182334084012582</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>376</v>
@@ -15957,19 +15957,19 @@
         <v>319257</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>288659</v>
+        <v>286364</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>349329</v>
+        <v>350602</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1914938538025466</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1731408680041241</v>
+        <v>0.1717641830916523</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2095313469653816</v>
+        <v>0.2102953156288654</v>
       </c>
     </row>
     <row r="56">
@@ -15986,19 +15986,19 @@
         <v>531074</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>503357</v>
+        <v>498285</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>559216</v>
+        <v>557972</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.7250546146330968</v>
+        <v>0.7250546146330969</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.687213668316204</v>
+        <v>0.6802889183963865</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.7634755428324637</v>
+        <v>0.7617774183179957</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>960</v>
@@ -16007,19 +16007,19 @@
         <v>675708</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>651652</v>
+        <v>649965</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>700344</v>
+        <v>702975</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>0.7228921469416296</v>
+        <v>0.7228921469416297</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.6971563412483802</v>
+        <v>0.6953507815192925</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.7492485123174559</v>
+        <v>0.7520632241369954</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1472</v>
@@ -16028,19 +16028,19 @@
         <v>1206783</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1170740</v>
+        <v>1171718</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1243044</v>
+        <v>1244095</v>
       </c>
       <c r="U56" s="6" t="n">
-        <v>0.7238422026924903</v>
+        <v>0.7238422026924906</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.7022231109255087</v>
+        <v>0.7028098741291373</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.7455919838370642</v>
+        <v>0.7462223346773917</v>
       </c>
     </row>
     <row r="57">
